--- a/Savings.xlsx
+++ b/Savings.xlsx
@@ -1,30 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rjacome\Documents\GitHub\CurriculumVitae\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ricardo Jacome\Documents\GitHub\CurriculumVitae\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E908067F-7D4A-4A58-98A2-80A10B930D9D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11700"/>
+    <workbookView xWindow="43410" yWindow="2055" windowWidth="17280" windowHeight="8970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="53">
   <si>
     <t>Funko</t>
   </si>
@@ -162,12 +169,33 @@
   </si>
   <si>
     <t>Waffles</t>
+  </si>
+  <si>
+    <t>L. Chalice</t>
+  </si>
+  <si>
+    <t>Cala Maria</t>
+  </si>
+  <si>
+    <t>Sally</t>
+  </si>
+  <si>
+    <t>Total Twice</t>
+  </si>
+  <si>
+    <t>Saved?</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Oogie Boogie</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -478,20 +506,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.28515625" customWidth="1"/>
-    <col min="7" max="7" width="9.7109375" customWidth="1"/>
+    <col min="1" max="1" width="11.33203125" customWidth="1"/>
+    <col min="7" max="7" width="9.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>10</v>
       </c>
@@ -505,7 +533,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B2">
         <v>6.94</v>
       </c>
@@ -531,7 +559,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B3">
         <v>9.65</v>
       </c>
@@ -557,7 +585,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B4">
         <v>4.99</v>
       </c>
@@ -583,7 +611,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B5">
         <v>6.82</v>
       </c>
@@ -609,7 +637,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B6">
         <v>8.89</v>
       </c>
@@ -629,7 +657,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B7">
         <v>10.199999999999999</v>
       </c>
@@ -649,7 +677,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B8">
         <v>5.85</v>
       </c>
@@ -669,13 +697,16 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B9">
         <v>6</v>
       </c>
       <c r="C9" t="s">
         <v>43</v>
       </c>
+      <c r="E9" t="s">
+        <v>52</v>
+      </c>
       <c r="F9">
         <v>6.98</v>
       </c>
@@ -683,7 +714,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B10">
         <v>17.54</v>
       </c>
@@ -697,7 +728,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B11">
+        <v>10</v>
+      </c>
       <c r="C11" t="s">
         <v>26</v>
       </c>
@@ -708,7 +742,10 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B12">
+        <v>22</v>
+      </c>
       <c r="C12" t="s">
         <v>27</v>
       </c>
@@ -719,7 +756,13 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B13">
+        <v>8</v>
+      </c>
+      <c r="C13" t="s">
+        <v>46</v>
+      </c>
       <c r="F13">
         <v>11.65</v>
       </c>
@@ -727,7 +770,13 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B14">
+        <v>9</v>
+      </c>
+      <c r="C14" t="s">
+        <v>47</v>
+      </c>
       <c r="F14">
         <v>29.98</v>
       </c>
@@ -735,7 +784,13 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B15">
+        <v>9</v>
+      </c>
+      <c r="C15" t="s">
+        <v>48</v>
+      </c>
       <c r="F15">
         <v>49.96</v>
       </c>
@@ -743,7 +798,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
       <c r="F16">
         <v>27.94</v>
       </c>
@@ -751,7 +806,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="F17">
         <v>12.58</v>
       </c>
@@ -759,7 +814,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="F18">
         <v>12.99</v>
       </c>
@@ -767,7 +822,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="F19">
         <v>30</v>
       </c>
@@ -775,13 +830,13 @@
         <v>45</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>18</v>
       </c>
       <c r="B25">
         <f>SUM(B2:B22)</f>
-        <v>76.88</v>
+        <v>134.88</v>
       </c>
       <c r="D25">
         <f>SUM(D2:D22)</f>
@@ -796,22 +851,60 @@
         <v>1035.18</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>49</v>
+      </c>
+      <c r="B26">
+        <f>B25*2</f>
+        <v>269.76</v>
+      </c>
+      <c r="D26">
+        <f t="shared" ref="C26:H26" si="0">D25*2</f>
+        <v>383.48</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="0"/>
+        <v>610.22</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="0"/>
+        <v>2070.36</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>50</v>
+      </c>
+      <c r="C27" t="s">
+        <v>51</v>
+      </c>
+      <c r="E27" t="s">
+        <v>51</v>
+      </c>
+      <c r="G27" t="s">
+        <v>51</v>
+      </c>
+      <c r="I27" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>24</v>
       </c>
       <c r="B28">
         <f>SUM(B25:M25)</f>
-        <v>1608.91</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1666.91</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>25</v>
       </c>
       <c r="B30">
         <f>B28*2</f>
-        <v>3217.82</v>
+        <v>3333.82</v>
       </c>
     </row>
   </sheetData>

--- a/Savings.xlsx
+++ b/Savings.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ricardo Jacome\Documents\GitHub\CurriculumVitae\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rjacome\Documents\GitHub\CurriculumVitae\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E908067F-7D4A-4A58-98A2-80A10B930D9D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="43410" yWindow="2055" windowWidth="17280" windowHeight="8970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="43410" yWindow="2055" windowWidth="17280" windowHeight="8970"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="57">
   <si>
     <t>Funko</t>
   </si>
@@ -190,12 +189,24 @@
   </si>
   <si>
     <t>Oogie Boogie</t>
+  </si>
+  <si>
+    <t>Alita</t>
+  </si>
+  <si>
+    <t>Jack</t>
+  </si>
+  <si>
+    <t>Clown</t>
+  </si>
+  <si>
+    <t>Shock</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -205,12 +216,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -225,8 +242,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -506,20 +524,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.33203125" customWidth="1"/>
-    <col min="7" max="7" width="9.6640625" customWidth="1"/>
+    <col min="1" max="1" width="11.28515625" customWidth="1"/>
+    <col min="7" max="7" width="9.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>10</v>
       </c>
@@ -533,7 +551,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B2">
         <v>6.94</v>
       </c>
@@ -559,7 +577,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B3">
         <v>9.65</v>
       </c>
@@ -585,7 +603,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B4">
         <v>4.99</v>
       </c>
@@ -611,7 +629,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>6.82</v>
       </c>
@@ -637,7 +655,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>8.89</v>
       </c>
@@ -657,7 +675,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>10.199999999999999</v>
       </c>
@@ -677,7 +695,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>5.85</v>
       </c>
@@ -697,13 +715,16 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B9">
         <v>6</v>
       </c>
       <c r="C9" t="s">
         <v>43</v>
       </c>
+      <c r="D9" s="1">
+        <v>10.55</v>
+      </c>
       <c r="E9" t="s">
         <v>52</v>
       </c>
@@ -714,13 +735,19 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B10">
         <v>17.54</v>
       </c>
       <c r="C10" t="s">
         <v>44</v>
       </c>
+      <c r="D10" s="1">
+        <v>13.99</v>
+      </c>
+      <c r="E10" t="s">
+        <v>54</v>
+      </c>
       <c r="F10">
         <v>9.59</v>
       </c>
@@ -728,13 +755,19 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B11">
-        <v>10</v>
+        <v>10.99</v>
       </c>
       <c r="C11" t="s">
         <v>26</v>
       </c>
+      <c r="D11" s="1">
+        <v>4.97</v>
+      </c>
+      <c r="E11" t="s">
+        <v>55</v>
+      </c>
       <c r="F11">
         <v>10.84</v>
       </c>
@@ -742,13 +775,19 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B12">
         <v>22</v>
       </c>
       <c r="C12" t="s">
         <v>27</v>
       </c>
+      <c r="D12" s="1">
+        <v>3.74</v>
+      </c>
+      <c r="E12" t="s">
+        <v>56</v>
+      </c>
       <c r="F12">
         <v>10.84</v>
       </c>
@@ -756,13 +795,19 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B13">
-        <v>8</v>
+        <v>8.99</v>
       </c>
       <c r="C13" t="s">
         <v>46</v>
       </c>
+      <c r="D13" s="1">
+        <v>4.49</v>
+      </c>
+      <c r="E13" t="s">
+        <v>48</v>
+      </c>
       <c r="F13">
         <v>11.65</v>
       </c>
@@ -770,9 +815,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B14">
-        <v>9</v>
+        <v>9.99</v>
       </c>
       <c r="C14" t="s">
         <v>47</v>
@@ -784,9 +829,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B15">
-        <v>9</v>
+        <v>9.99</v>
       </c>
       <c r="C15" t="s">
         <v>48</v>
@@ -798,7 +843,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
       <c r="F16">
         <v>27.94</v>
       </c>
@@ -806,7 +851,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F17">
         <v>12.58</v>
       </c>
@@ -814,7 +859,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F18">
         <v>12.99</v>
       </c>
@@ -822,7 +867,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F19">
         <v>30</v>
       </c>
@@ -830,49 +875,57 @@
         <v>45</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F20" s="1">
+        <v>30</v>
+      </c>
+      <c r="G20" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>18</v>
       </c>
       <c r="B25">
         <f>SUM(B2:B22)</f>
-        <v>134.88</v>
+        <v>138.84</v>
       </c>
       <c r="D25">
         <f>SUM(D2:D22)</f>
-        <v>191.74</v>
+        <v>229.48000000000005</v>
       </c>
       <c r="F25">
         <f>SUM(F2:F24)</f>
-        <v>305.11</v>
+        <v>335.11</v>
       </c>
       <c r="H25">
         <f>SUM(H2:H24)</f>
         <v>1035.18</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>49</v>
       </c>
       <c r="B26">
         <f>B25*2</f>
-        <v>269.76</v>
+        <v>277.68</v>
       </c>
       <c r="D26">
-        <f t="shared" ref="C26:H26" si="0">D25*2</f>
-        <v>383.48</v>
+        <f t="shared" ref="D26:H26" si="0">D25*2</f>
+        <v>458.96000000000009</v>
       </c>
       <c r="F26">
         <f t="shared" si="0"/>
-        <v>610.22</v>
+        <v>670.22</v>
       </c>
       <c r="H26">
         <f t="shared" si="0"/>
         <v>2070.36</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>50</v>
       </c>
@@ -889,22 +942,22 @@
         <v>51</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>24</v>
       </c>
       <c r="B28">
         <f>SUM(B25:M25)</f>
-        <v>1666.91</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+        <v>1738.6100000000001</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>25</v>
       </c>
       <c r="B30">
         <f>B28*2</f>
-        <v>3333.82</v>
+        <v>3477.2200000000003</v>
       </c>
     </row>
   </sheetData>

--- a/Savings.xlsx
+++ b/Savings.xlsx
@@ -1,20 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rjacome\Documents\GitHub\CurriculumVitae\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ricardo Jacome\Documents\GitHub\CurriculumVitae\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58A0F482-A9F6-4C84-B23F-5C4F9E4A1B54}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="43410" yWindow="2055" windowWidth="17280" windowHeight="8970"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="81">
   <si>
     <t>Funko</t>
   </si>
@@ -201,13 +203,95 @@
   </si>
   <si>
     <t>Shock</t>
+  </si>
+  <si>
+    <t>Car Expenses</t>
+  </si>
+  <si>
+    <t>Total Price</t>
+  </si>
+  <si>
+    <t>PMT</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>Bi-Weekly</t>
+  </si>
+  <si>
+    <t>June</t>
+  </si>
+  <si>
+    <t>July</t>
+  </si>
+  <si>
+    <t>August</t>
+  </si>
+  <si>
+    <t>Rent</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Food Approx</t>
+  </si>
+  <si>
+    <t>Leftover</t>
+  </si>
+  <si>
+    <t>Acorns</t>
+  </si>
+  <si>
+    <t>Internet</t>
+  </si>
+  <si>
+    <t>Phone</t>
+  </si>
+  <si>
+    <t>Ally Total</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Retaurants </t>
+  </si>
+  <si>
+    <t>Casual Buying</t>
+  </si>
+  <si>
+    <t>Clothes</t>
+  </si>
+  <si>
+    <t>Price</t>
+  </si>
+  <si>
+    <t>Interest Paid</t>
+  </si>
+  <si>
+    <t>PMT Calc</t>
+  </si>
+  <si>
+    <t>Interest</t>
+  </si>
+  <si>
+    <t>N Left</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
+  </numFmts>
+  <fonts count="2" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -239,15 +323,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -524,20 +612,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I30"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:Z30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.28515625" customWidth="1"/>
-    <col min="7" max="7" width="9.7109375" customWidth="1"/>
+    <col min="1" max="1" width="11.33203125" customWidth="1"/>
+    <col min="7" max="7" width="9.6640625" customWidth="1"/>
+    <col min="14" max="14" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>10</v>
       </c>
@@ -550,8 +640,29 @@
       <c r="H1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="K1" t="s">
+        <v>57</v>
+      </c>
+      <c r="L1" t="s">
+        <v>80</v>
+      </c>
+      <c r="O1" t="s">
+        <v>58</v>
+      </c>
+      <c r="P1" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>60</v>
+      </c>
+      <c r="T1" t="s">
+        <v>61</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B2">
         <v>6.94</v>
       </c>
@@ -576,8 +687,33 @@
       <c r="I2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="K2">
+        <v>9151</v>
+      </c>
+      <c r="L2">
+        <v>36</v>
+      </c>
+      <c r="O2">
+        <v>13484</v>
+      </c>
+      <c r="P2">
+        <v>269</v>
+      </c>
+      <c r="Q2">
+        <v>60</v>
+      </c>
+      <c r="S2" t="s">
+        <v>62</v>
+      </c>
+      <c r="T2">
+        <v>1411.13</v>
+      </c>
+      <c r="Z2">
+        <f>SUM(B27+D27+F27+H27)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B3">
         <v>9.65</v>
       </c>
@@ -602,8 +738,21 @@
       <c r="I3" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="K3">
+        <f>(L2*P2)</f>
+        <v>9684</v>
+      </c>
+      <c r="O3" t="s">
+        <v>79</v>
+      </c>
+      <c r="S3" t="s">
+        <v>62</v>
+      </c>
+      <c r="T3">
+        <v>1411.13</v>
+      </c>
+    </row>
+    <row r="4" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B4">
         <v>4.99</v>
       </c>
@@ -628,8 +777,17 @@
       <c r="I4" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="O4" s="3">
+        <v>7.2999999999999995E-2</v>
+      </c>
+      <c r="S4" t="s">
+        <v>63</v>
+      </c>
+      <c r="T4">
+        <v>1411.13</v>
+      </c>
+    </row>
+    <row r="5" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B5">
         <v>6.82</v>
       </c>
@@ -654,8 +812,21 @@
       <c r="I5" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="N5" t="s">
+        <v>78</v>
+      </c>
+      <c r="O5" s="2">
+        <f>PMT(O4/12,Q2,O2)</f>
+        <v>-268.91201693575812</v>
+      </c>
+      <c r="S5" t="s">
+        <v>63</v>
+      </c>
+      <c r="T5">
+        <v>1411.13</v>
+      </c>
+    </row>
+    <row r="6" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B6">
         <v>8.89</v>
       </c>
@@ -674,8 +845,21 @@
       <c r="G6" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="N6" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="O6" s="2">
+        <f>(-O5*Q2)-O2</f>
+        <v>2650.7210161454877</v>
+      </c>
+      <c r="S6" t="s">
+        <v>64</v>
+      </c>
+      <c r="T6">
+        <v>1411.13</v>
+      </c>
+    </row>
+    <row r="7" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B7">
         <v>10.199999999999999</v>
       </c>
@@ -694,8 +878,14 @@
       <c r="G7" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="S7" t="s">
+        <v>64</v>
+      </c>
+      <c r="T7">
+        <v>1411.13</v>
+      </c>
+    </row>
+    <row r="8" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B8">
         <v>5.85</v>
       </c>
@@ -714,8 +904,15 @@
       <c r="G8" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="S8" t="s">
+        <v>66</v>
+      </c>
+      <c r="T8">
+        <f>SUM(T2:T7)</f>
+        <v>8466.7800000000007</v>
+      </c>
+    </row>
+    <row r="9" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B9">
         <v>6</v>
       </c>
@@ -734,8 +931,23 @@
       <c r="G9" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="T9" t="s">
+        <v>65</v>
+      </c>
+      <c r="U9" t="s">
+        <v>70</v>
+      </c>
+      <c r="V9" t="s">
+        <v>71</v>
+      </c>
+      <c r="W9" t="s">
+        <v>67</v>
+      </c>
+      <c r="X9" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="10" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B10">
         <v>17.54</v>
       </c>
@@ -754,8 +966,26 @@
       <c r="G10" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="S10" t="s">
+        <v>62</v>
+      </c>
+      <c r="T10">
+        <v>700</v>
+      </c>
+      <c r="U10">
+        <v>70</v>
+      </c>
+      <c r="V10">
+        <v>70</v>
+      </c>
+      <c r="W10">
+        <v>300</v>
+      </c>
+      <c r="X10">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B11">
         <v>10.99</v>
       </c>
@@ -774,8 +1004,26 @@
       <c r="G11" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="S11" t="s">
+        <v>63</v>
+      </c>
+      <c r="T11">
+        <v>700</v>
+      </c>
+      <c r="U11">
+        <v>70</v>
+      </c>
+      <c r="V11">
+        <v>70</v>
+      </c>
+      <c r="W11">
+        <v>300</v>
+      </c>
+      <c r="X11">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B12">
         <v>22</v>
       </c>
@@ -794,8 +1042,26 @@
       <c r="G12" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="S12" t="s">
+        <v>64</v>
+      </c>
+      <c r="T12">
+        <v>700</v>
+      </c>
+      <c r="U12">
+        <v>70</v>
+      </c>
+      <c r="V12">
+        <v>70</v>
+      </c>
+      <c r="W12">
+        <v>300</v>
+      </c>
+      <c r="X12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B13">
         <v>8.99</v>
       </c>
@@ -814,8 +1080,15 @@
       <c r="G13" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="S13" t="s">
+        <v>66</v>
+      </c>
+      <c r="T13">
+        <f>SUM(T10:X12)</f>
+        <v>3720</v>
+      </c>
+    </row>
+    <row r="14" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B14">
         <v>9.99</v>
       </c>
@@ -829,7 +1102,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B15">
         <v>9.99</v>
       </c>
@@ -843,15 +1116,22 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:26" x14ac:dyDescent="0.3">
       <c r="F16">
         <v>27.94</v>
       </c>
       <c r="G16" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="S16" t="s">
+        <v>68</v>
+      </c>
+      <c r="T16">
+        <f>T8-T13</f>
+        <v>4746.7800000000007</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="F17">
         <v>12.58</v>
       </c>
@@ -859,7 +1139,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="F18">
         <v>12.99</v>
       </c>
@@ -867,7 +1147,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="F19">
         <v>30</v>
       </c>
@@ -875,7 +1155,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="F20" s="1">
         <v>30</v>
       </c>
@@ -883,7 +1163,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>18</v>
       </c>
@@ -904,7 +1184,7 @@
         <v>1035.18</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>49</v>
       </c>
@@ -925,24 +1205,36 @@
         <v>2070.36</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>50</v>
       </c>
+      <c r="B27">
+        <v>0</v>
+      </c>
       <c r="C27" t="s">
         <v>51</v>
       </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
       <c r="E27" t="s">
         <v>51</v>
       </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
       <c r="G27" t="s">
         <v>51</v>
       </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
       <c r="I27" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>24</v>
       </c>
@@ -951,13 +1243,51 @@
         <v>1738.6100000000001</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>25</v>
       </c>
       <c r="B30">
         <f>B28*2</f>
         <v>3477.2200000000003</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D10E2DAE-B06C-4FD2-9B2A-A71092ABDF94}">
+  <dimension ref="A1:H1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1" t="s">
+        <v>76</v>
+      </c>
+      <c r="G1" t="s">
+        <v>75</v>
+      </c>
+      <c r="H1" t="s">
+        <v>76</v>
       </c>
     </row>
   </sheetData>

--- a/Savings.xlsx
+++ b/Savings.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ricardo Jacome\Documents\GitHub\CurriculumVitae\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ricardo\Documents\GitHub\CurriculumVitae\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58A0F482-A9F6-4C84-B23F-5C4F9E4A1B54}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29109AEF-C192-4258-A8A8-282A900964E1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="84">
   <si>
     <t>Funko</t>
   </si>
@@ -275,6 +275,15 @@
   </si>
   <si>
     <t>N Left</t>
+  </si>
+  <si>
+    <t>Doflamingo</t>
+  </si>
+  <si>
+    <t>Armored</t>
+  </si>
+  <si>
+    <t>Chess</t>
   </si>
 </sst>
 </file>
@@ -327,11 +336,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -616,18 +626,18 @@
   <dimension ref="A1:Z30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+      <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="11.33203125" customWidth="1"/>
     <col min="7" max="7" width="9.6640625" customWidth="1"/>
-    <col min="14" max="14" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.44140625" customWidth="1"/>
+    <col min="14" max="14" width="11.1328125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.46484375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:26" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:26" x14ac:dyDescent="0.45">
       <c r="B1" t="s">
         <v>10</v>
       </c>
@@ -662,7 +672,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="2" spans="2:26" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:26" x14ac:dyDescent="0.45">
       <c r="B2">
         <v>6.94</v>
       </c>
@@ -710,10 +720,10 @@
       </c>
       <c r="Z2">
         <f>SUM(B27+D27+F27+H27)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="2:26" x14ac:dyDescent="0.3">
+        <v>64.180000000000007</v>
+      </c>
+    </row>
+    <row r="3" spans="2:26" x14ac:dyDescent="0.45">
       <c r="B3">
         <v>9.65</v>
       </c>
@@ -752,7 +762,7 @@
         <v>1411.13</v>
       </c>
     </row>
-    <row r="4" spans="2:26" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:26" x14ac:dyDescent="0.45">
       <c r="B4">
         <v>4.99</v>
       </c>
@@ -787,7 +797,7 @@
         <v>1411.13</v>
       </c>
     </row>
-    <row r="5" spans="2:26" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:26" x14ac:dyDescent="0.45">
       <c r="B5">
         <v>6.82</v>
       </c>
@@ -826,7 +836,7 @@
         <v>1411.13</v>
       </c>
     </row>
-    <row r="6" spans="2:26" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:26" x14ac:dyDescent="0.45">
       <c r="B6">
         <v>8.89</v>
       </c>
@@ -859,7 +869,7 @@
         <v>1411.13</v>
       </c>
     </row>
-    <row r="7" spans="2:26" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:26" x14ac:dyDescent="0.45">
       <c r="B7">
         <v>10.199999999999999</v>
       </c>
@@ -885,7 +895,7 @@
         <v>1411.13</v>
       </c>
     </row>
-    <row r="8" spans="2:26" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:26" x14ac:dyDescent="0.45">
       <c r="B8">
         <v>5.85</v>
       </c>
@@ -912,7 +922,7 @@
         <v>8466.7800000000007</v>
       </c>
     </row>
-    <row r="9" spans="2:26" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:26" x14ac:dyDescent="0.45">
       <c r="B9">
         <v>6</v>
       </c>
@@ -947,7 +957,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="10" spans="2:26" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:26" x14ac:dyDescent="0.45">
       <c r="B10">
         <v>17.54</v>
       </c>
@@ -985,7 +995,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="2:26" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:26" x14ac:dyDescent="0.45">
       <c r="B11">
         <v>10.99</v>
       </c>
@@ -1023,7 +1033,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="2:26" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:26" x14ac:dyDescent="0.45">
       <c r="B12">
         <v>22</v>
       </c>
@@ -1061,7 +1071,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="2:26" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:26" x14ac:dyDescent="0.45">
       <c r="B13">
         <v>8.99</v>
       </c>
@@ -1088,13 +1098,19 @@
         <v>3720</v>
       </c>
     </row>
-    <row r="14" spans="2:26" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:26" x14ac:dyDescent="0.45">
       <c r="B14">
         <v>9.99</v>
       </c>
       <c r="C14" t="s">
         <v>47</v>
       </c>
+      <c r="D14" s="1">
+        <v>7.28</v>
+      </c>
+      <c r="E14" t="s">
+        <v>81</v>
+      </c>
       <c r="F14">
         <v>29.98</v>
       </c>
@@ -1102,13 +1118,19 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="2:26" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:26" x14ac:dyDescent="0.45">
       <c r="B15">
         <v>9.99</v>
       </c>
       <c r="C15" t="s">
         <v>48</v>
       </c>
+      <c r="D15" s="4">
+        <v>32.090000000000003</v>
+      </c>
+      <c r="E15" t="s">
+        <v>82</v>
+      </c>
       <c r="F15">
         <v>49.96</v>
       </c>
@@ -1116,7 +1138,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="2:26" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:26" x14ac:dyDescent="0.45">
       <c r="F16">
         <v>27.94</v>
       </c>
@@ -1131,7 +1153,7 @@
         <v>4746.7800000000007</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.45">
       <c r="F17">
         <v>12.58</v>
       </c>
@@ -1139,7 +1161,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.45">
       <c r="F18">
         <v>12.99</v>
       </c>
@@ -1147,7 +1169,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.45">
       <c r="F19">
         <v>30</v>
       </c>
@@ -1155,7 +1177,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.45">
       <c r="F20" s="1">
         <v>30</v>
       </c>
@@ -1163,7 +1185,15 @@
         <v>53</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="F21" s="1">
+        <v>11.29</v>
+      </c>
+      <c r="G21" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
         <v>18</v>
       </c>
@@ -1173,18 +1203,18 @@
       </c>
       <c r="D25">
         <f>SUM(D2:D22)</f>
-        <v>229.48000000000005</v>
+        <v>268.85000000000002</v>
       </c>
       <c r="F25">
         <f>SUM(F2:F24)</f>
-        <v>335.11</v>
+        <v>346.40000000000003</v>
       </c>
       <c r="H25">
         <f>SUM(H2:H24)</f>
         <v>1035.18</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>49</v>
       </c>
@@ -1194,18 +1224,18 @@
       </c>
       <c r="D26">
         <f t="shared" ref="D26:H26" si="0">D25*2</f>
-        <v>458.96000000000009</v>
+        <v>537.70000000000005</v>
       </c>
       <c r="F26">
         <f t="shared" si="0"/>
-        <v>670.22</v>
+        <v>692.80000000000007</v>
       </c>
       <c r="H26">
         <f t="shared" si="0"/>
         <v>2070.36</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
         <v>50</v>
       </c>
@@ -1216,7 +1246,8 @@
         <v>51</v>
       </c>
       <c r="D27">
-        <v>0</v>
+        <f>32.09*2</f>
+        <v>64.180000000000007</v>
       </c>
       <c r="E27" t="s">
         <v>51</v>
@@ -1234,22 +1265,22 @@
         <v>51</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
         <v>24</v>
       </c>
       <c r="B28">
         <f>SUM(B25:M25)</f>
-        <v>1738.6100000000001</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+        <v>1789.2700000000002</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
         <v>25</v>
       </c>
       <c r="B30">
         <f>B28*2</f>
-        <v>3477.2200000000003</v>
+        <v>3578.5400000000004</v>
       </c>
     </row>
   </sheetData>
@@ -1265,12 +1296,12 @@
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="10.5546875" customWidth="1"/>
+    <col min="1" max="1" width="10.53125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>73</v>
       </c>

--- a/Savings.xlsx
+++ b/Savings.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ricardo\Documents\GitHub\CurriculumVitae\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rjacome\Documents\GitHub\CurriculumVitae\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29109AEF-C192-4258-A8A8-282A900964E1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="20715" windowHeight="13275"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="90">
   <si>
     <t>Funko</t>
   </si>
@@ -184,9 +183,6 @@
     <t>Total Twice</t>
   </si>
   <si>
-    <t>Saved?</t>
-  </si>
-  <si>
     <t>No</t>
   </si>
   <si>
@@ -284,12 +280,33 @@
   </si>
   <si>
     <t>Chess</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yellow </t>
+  </si>
+  <si>
+    <t>Means</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You </t>
+  </si>
+  <si>
+    <t>Havent</t>
+  </si>
+  <si>
+    <t>Bought it</t>
+  </si>
+  <si>
+    <t>Saved on Ally?</t>
+  </si>
+  <si>
+    <t>Still Left</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
   </numFmts>
@@ -622,22 +639,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z30"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Z31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L18" sqref="L18"/>
+      <selection activeCell="U9" sqref="U9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.33203125" customWidth="1"/>
-    <col min="7" max="7" width="9.6640625" customWidth="1"/>
-    <col min="14" max="14" width="11.1328125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.46484375" customWidth="1"/>
+    <col min="1" max="1" width="13" customWidth="1"/>
+    <col min="7" max="7" width="9.7109375" customWidth="1"/>
+    <col min="14" max="14" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:26" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>10</v>
       </c>
@@ -651,28 +668,28 @@
         <v>19</v>
       </c>
       <c r="K1" t="s">
+        <v>56</v>
+      </c>
+      <c r="L1" t="s">
+        <v>79</v>
+      </c>
+      <c r="O1" t="s">
         <v>57</v>
       </c>
-      <c r="L1" t="s">
-        <v>80</v>
-      </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>58</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>59</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="T1" t="s">
         <v>60</v>
       </c>
-      <c r="T1" t="s">
-        <v>61</v>
-      </c>
       <c r="Z1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="2" spans="2:26" x14ac:dyDescent="0.45">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B2">
         <v>6.94</v>
       </c>
@@ -713,7 +730,7 @@
         <v>60</v>
       </c>
       <c r="S2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="T2">
         <v>1411.13</v>
@@ -723,7 +740,7 @@
         <v>64.180000000000007</v>
       </c>
     </row>
-    <row r="3" spans="2:26" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B3">
         <v>9.65</v>
       </c>
@@ -753,16 +770,16 @@
         <v>9684</v>
       </c>
       <c r="O3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="S3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="T3">
         <v>1411.13</v>
       </c>
     </row>
-    <row r="4" spans="2:26" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B4">
         <v>4.99</v>
       </c>
@@ -791,13 +808,13 @@
         <v>7.2999999999999995E-2</v>
       </c>
       <c r="S4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="T4">
         <v>1411.13</v>
       </c>
     </row>
-    <row r="5" spans="2:26" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>6.82</v>
       </c>
@@ -823,20 +840,23 @@
         <v>23</v>
       </c>
       <c r="N5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="O5" s="2">
         <f>PMT(O4/12,Q2,O2)</f>
         <v>-268.91201693575812</v>
       </c>
       <c r="S5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="T5">
         <v>1411.13</v>
       </c>
     </row>
-    <row r="6" spans="2:26" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>83</v>
+      </c>
       <c r="B6">
         <v>8.89</v>
       </c>
@@ -856,20 +876,23 @@
         <v>6</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="O6" s="2">
         <f>(-O5*Q2)-O2</f>
         <v>2650.7210161454877</v>
       </c>
       <c r="S6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="T6">
         <v>1411.13</v>
       </c>
     </row>
-    <row r="7" spans="2:26" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>84</v>
+      </c>
       <c r="B7">
         <v>10.199999999999999</v>
       </c>
@@ -889,13 +912,16 @@
         <v>6</v>
       </c>
       <c r="S7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="T7">
         <v>1411.13</v>
       </c>
     </row>
-    <row r="8" spans="2:26" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>85</v>
+      </c>
       <c r="B8">
         <v>5.85</v>
       </c>
@@ -915,14 +941,17 @@
         <v>7</v>
       </c>
       <c r="S8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="T8">
         <f>SUM(T2:T7)</f>
         <v>8466.7800000000007</v>
       </c>
     </row>
-    <row r="9" spans="2:26" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>86</v>
+      </c>
       <c r="B9">
         <v>6</v>
       </c>
@@ -933,7 +962,7 @@
         <v>10.55</v>
       </c>
       <c r="E9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F9">
         <v>6.98</v>
@@ -942,22 +971,25 @@
         <v>8</v>
       </c>
       <c r="T9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="U9" t="s">
+        <v>69</v>
+      </c>
+      <c r="V9" t="s">
         <v>70</v>
       </c>
-      <c r="V9" t="s">
-        <v>71</v>
-      </c>
       <c r="W9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="X9" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="10" spans="2:26" x14ac:dyDescent="0.45">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>87</v>
+      </c>
       <c r="B10">
         <v>17.54</v>
       </c>
@@ -968,7 +1000,7 @@
         <v>13.99</v>
       </c>
       <c r="E10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F10">
         <v>9.59</v>
@@ -977,7 +1009,7 @@
         <v>9</v>
       </c>
       <c r="S10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="T10">
         <v>700</v>
@@ -995,7 +1027,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="2:26" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B11">
         <v>10.99</v>
       </c>
@@ -1006,7 +1038,7 @@
         <v>4.97</v>
       </c>
       <c r="E11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F11">
         <v>10.84</v>
@@ -1015,7 +1047,7 @@
         <v>11</v>
       </c>
       <c r="S11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="T11">
         <v>700</v>
@@ -1033,7 +1065,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="2:26" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B12">
         <v>22</v>
       </c>
@@ -1044,7 +1076,7 @@
         <v>3.74</v>
       </c>
       <c r="E12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F12">
         <v>10.84</v>
@@ -1053,7 +1085,7 @@
         <v>12</v>
       </c>
       <c r="S12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="T12">
         <v>700</v>
@@ -1071,7 +1103,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="2:26" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B13">
         <v>8.99</v>
       </c>
@@ -1091,14 +1123,14 @@
         <v>13</v>
       </c>
       <c r="S13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="T13">
         <f>SUM(T10:X12)</f>
         <v>3720</v>
       </c>
     </row>
-    <row r="14" spans="2:26" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B14">
         <v>9.99</v>
       </c>
@@ -1109,7 +1141,7 @@
         <v>7.28</v>
       </c>
       <c r="E14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F14">
         <v>29.98</v>
@@ -1118,7 +1150,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="2:26" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B15">
         <v>9.99</v>
       </c>
@@ -1129,7 +1161,7 @@
         <v>32.090000000000003</v>
       </c>
       <c r="E15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F15">
         <v>49.96</v>
@@ -1138,7 +1170,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="2:26" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
       <c r="F16">
         <v>27.94</v>
       </c>
@@ -1146,14 +1178,14 @@
         <v>16</v>
       </c>
       <c r="S16" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="T16">
         <f>T8-T13</f>
         <v>4746.7800000000007</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F17">
         <v>12.58</v>
       </c>
@@ -1161,7 +1193,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F18">
         <v>12.99</v>
       </c>
@@ -1169,7 +1201,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F19">
         <v>30</v>
       </c>
@@ -1177,23 +1209,23 @@
         <v>45</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F20" s="1">
         <v>30</v>
       </c>
       <c r="G20" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.45">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F21" s="1">
         <v>11.29</v>
       </c>
       <c r="G21" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.45">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>18</v>
       </c>
@@ -1214,7 +1246,7 @@
         <v>1035.18</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>49</v>
       </c>
@@ -1235,51 +1267,72 @@
         <v>2070.36</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>50</v>
+        <v>88</v>
       </c>
       <c r="B27">
         <v>0</v>
       </c>
       <c r="C27" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D27">
         <f>32.09*2</f>
         <v>64.180000000000007</v>
       </c>
       <c r="E27" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F27">
         <v>0</v>
       </c>
       <c r="G27" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H27">
         <v>0</v>
       </c>
       <c r="I27" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.45">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
+        <v>89</v>
+      </c>
+      <c r="B28">
+        <f>B26-B27</f>
+        <v>277.68</v>
+      </c>
+      <c r="D28">
+        <f t="shared" ref="C28:H28" si="1">D26-D27</f>
+        <v>473.52000000000004</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="1"/>
+        <v>692.80000000000007</v>
+      </c>
+      <c r="H28">
+        <f t="shared" si="1"/>
+        <v>2070.36</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>24</v>
       </c>
-      <c r="B28">
+      <c r="B29">
         <f>SUM(B25:M25)</f>
         <v>1789.2700000000002</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A30" t="s">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
         <v>25</v>
       </c>
-      <c r="B30">
-        <f>B28*2</f>
+      <c r="B31">
+        <f>B29*2</f>
         <v>3578.5400000000004</v>
       </c>
     </row>
@@ -1289,36 +1342,36 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D10E2DAE-B06C-4FD2-9B2A-A71092ABDF94}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.53125" customWidth="1"/>
+    <col min="1" max="1" width="10.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D1" t="s">
         <v>73</v>
       </c>
-      <c r="B1" t="s">
-        <v>76</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
+        <v>75</v>
+      </c>
+      <c r="G1" t="s">
         <v>74</v>
       </c>
-      <c r="E1" t="s">
-        <v>76</v>
-      </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>75</v>
-      </c>
-      <c r="H1" t="s">
-        <v>76</v>
       </c>
     </row>
   </sheetData>

--- a/Savings.xlsx
+++ b/Savings.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="108">
   <si>
     <t>Funko</t>
   </si>
@@ -78,9 +78,6 @@
     <t>head</t>
   </si>
   <si>
-    <t>shock</t>
-  </si>
-  <si>
     <t>colossus</t>
   </si>
   <si>
@@ -96,9 +93,6 @@
     <t>Switch</t>
   </si>
   <si>
-    <t>Play</t>
-  </si>
-  <si>
     <t>Guitar</t>
   </si>
   <si>
@@ -301,6 +295,66 @@
   </si>
   <si>
     <t>Still Left</t>
+  </si>
+  <si>
+    <t>Fractal G</t>
+  </si>
+  <si>
+    <t>Fractal Intro</t>
+  </si>
+  <si>
+    <t>Green</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Means </t>
+  </si>
+  <si>
+    <t>You Already</t>
+  </si>
+  <si>
+    <t>Saved Money</t>
+  </si>
+  <si>
+    <t>For This Item</t>
+  </si>
+  <si>
+    <t>Insurance</t>
+  </si>
+  <si>
+    <t>dual shock</t>
+  </si>
+  <si>
+    <t>PS4</t>
+  </si>
+  <si>
+    <t>Rental</t>
+  </si>
+  <si>
+    <t>Dagget</t>
+  </si>
+  <si>
+    <t>Norbert</t>
+  </si>
+  <si>
+    <t>Oogie Worm</t>
+  </si>
+  <si>
+    <t>Sabor Cosmico</t>
+  </si>
+  <si>
+    <t>Harlequin</t>
+  </si>
+  <si>
+    <t>Slimer</t>
+  </si>
+  <si>
+    <t>Lock</t>
+  </si>
+  <si>
+    <t>Barrel</t>
+  </si>
+  <si>
+    <t>Chesire 2</t>
   </si>
 </sst>
 </file>
@@ -326,7 +380,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -336,6 +390,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -353,12 +425,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -640,10 +715,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z31"/>
+  <dimension ref="A1:Z35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U9" sqref="U9"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -665,28 +740,28 @@
         <v>1</v>
       </c>
       <c r="H1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K1" t="s">
+        <v>54</v>
+      </c>
+      <c r="L1" t="s">
+        <v>77</v>
+      </c>
+      <c r="O1" t="s">
+        <v>55</v>
+      </c>
+      <c r="P1" t="s">
         <v>56</v>
       </c>
-      <c r="L1" t="s">
-        <v>79</v>
-      </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
         <v>57</v>
       </c>
-      <c r="P1" t="s">
+      <c r="T1" t="s">
         <v>58</v>
       </c>
-      <c r="Q1" t="s">
-        <v>59</v>
-      </c>
-      <c r="T1" t="s">
-        <v>60</v>
-      </c>
       <c r="Z1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.25">
@@ -694,13 +769,13 @@
         <v>6.94</v>
       </c>
       <c r="C2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D2">
         <v>35.94</v>
       </c>
       <c r="E2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F2">
         <v>9.3699999999999992</v>
@@ -712,7 +787,7 @@
         <v>385.18</v>
       </c>
       <c r="I2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K2">
         <v>9151</v>
@@ -730,13 +805,13 @@
         <v>60</v>
       </c>
       <c r="S2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="T2">
         <v>1411.13</v>
       </c>
       <c r="Z2">
-        <f>SUM(B27+D27+F27+H27)</f>
+        <f>SUM(B31+D31+F31+H31)</f>
         <v>64.180000000000007</v>
       </c>
     </row>
@@ -745,13 +820,13 @@
         <v>9.65</v>
       </c>
       <c r="C3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D3">
         <v>32.090000000000003</v>
       </c>
       <c r="E3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F3">
         <v>19.989999999999998</v>
@@ -763,17 +838,17 @@
         <v>200</v>
       </c>
       <c r="I3" t="s">
-        <v>21</v>
+        <v>97</v>
       </c>
       <c r="K3">
         <f>(L2*P2)</f>
         <v>9684</v>
       </c>
       <c r="O3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="S3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="T3">
         <v>1411.13</v>
@@ -784,13 +859,13 @@
         <v>4.99</v>
       </c>
       <c r="C4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D4">
         <v>18.73</v>
       </c>
       <c r="E4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F4">
         <v>9.48</v>
@@ -802,13 +877,13 @@
         <v>250</v>
       </c>
       <c r="I4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="O4" s="3">
         <v>7.2999999999999995E-2</v>
       </c>
       <c r="S4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="T4">
         <v>1411.13</v>
@@ -819,13 +894,13 @@
         <v>6.82</v>
       </c>
       <c r="C5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D5">
         <v>38.25</v>
       </c>
       <c r="E5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F5">
         <v>19.989999999999998</v>
@@ -837,17 +912,17 @@
         <v>200</v>
       </c>
       <c r="I5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="N5" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="O5" s="2">
         <f>PMT(O4/12,Q2,O2)</f>
         <v>-268.91201693575812</v>
       </c>
       <c r="S5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="T5">
         <v>1411.13</v>
@@ -855,19 +930,19 @@
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B6">
         <v>8.89</v>
       </c>
       <c r="C6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D6">
         <v>23.74</v>
       </c>
       <c r="E6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F6">
         <v>9.99</v>
@@ -876,14 +951,14 @@
         <v>6</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="O6" s="2">
         <f>(-O5*Q2)-O2</f>
         <v>2650.7210161454877</v>
       </c>
       <c r="S6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="T6">
         <v>1411.13</v>
@@ -891,19 +966,19 @@
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B7">
         <v>10.199999999999999</v>
       </c>
       <c r="C7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D7">
         <v>22.99</v>
       </c>
       <c r="E7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F7">
         <v>5.98</v>
@@ -912,7 +987,7 @@
         <v>6</v>
       </c>
       <c r="S7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="T7">
         <v>1411.13</v>
@@ -920,19 +995,19 @@
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B8">
         <v>5.85</v>
       </c>
       <c r="C8" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D8">
         <v>20</v>
       </c>
       <c r="E8" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F8">
         <v>16.96</v>
@@ -941,7 +1016,7 @@
         <v>7</v>
       </c>
       <c r="S8" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="T8">
         <f>SUM(T2:T7)</f>
@@ -950,19 +1025,19 @@
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B9">
         <v>6</v>
       </c>
       <c r="C9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D9" s="1">
-        <v>10.55</v>
-      </c>
-      <c r="E9" t="s">
-        <v>51</v>
+        <v>10.4</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="F9">
         <v>6.98</v>
@@ -971,36 +1046,39 @@
         <v>8</v>
       </c>
       <c r="T9" t="s">
+        <v>62</v>
+      </c>
+      <c r="U9" t="s">
+        <v>67</v>
+      </c>
+      <c r="V9" t="s">
+        <v>68</v>
+      </c>
+      <c r="W9" t="s">
         <v>64</v>
       </c>
-      <c r="U9" t="s">
-        <v>69</v>
-      </c>
-      <c r="V9" t="s">
-        <v>70</v>
-      </c>
-      <c r="W9" t="s">
+      <c r="X9" t="s">
         <v>66</v>
       </c>
-      <c r="X9" t="s">
-        <v>68</v>
+      <c r="Y9" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B10">
         <v>17.54</v>
       </c>
       <c r="C10" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D10" s="1">
         <v>13.99</v>
       </c>
-      <c r="E10" t="s">
-        <v>53</v>
+      <c r="E10" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="F10">
         <v>9.59</v>
@@ -1009,7 +1087,7 @@
         <v>9</v>
       </c>
       <c r="S10" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="T10">
         <v>700</v>
@@ -1025,6 +1103,9 @@
       </c>
       <c r="X10">
         <v>100</v>
+      </c>
+      <c r="Y10">
+        <v>130</v>
       </c>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.25">
@@ -1032,13 +1113,13 @@
         <v>10.99</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D11" s="1">
         <v>4.97</v>
       </c>
-      <c r="E11" t="s">
-        <v>54</v>
+      <c r="E11" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="F11">
         <v>10.84</v>
@@ -1047,7 +1128,7 @@
         <v>11</v>
       </c>
       <c r="S11" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="T11">
         <v>700</v>
@@ -1063,6 +1144,9 @@
       </c>
       <c r="X11">
         <v>100</v>
+      </c>
+      <c r="Y11">
+        <v>130</v>
       </c>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.25">
@@ -1070,13 +1154,13 @@
         <v>22</v>
       </c>
       <c r="C12" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D12" s="1">
-        <v>3.74</v>
-      </c>
-      <c r="E12" t="s">
-        <v>55</v>
+        <v>4.49</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="F12">
         <v>10.84</v>
@@ -1085,7 +1169,7 @@
         <v>12</v>
       </c>
       <c r="S12" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="T12">
         <v>700</v>
@@ -1102,19 +1186,25 @@
       <c r="X12">
         <v>100</v>
       </c>
+      <c r="Y12">
+        <v>130</v>
+      </c>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>90</v>
+      </c>
       <c r="B13">
         <v>8.99</v>
       </c>
       <c r="C13" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D13" s="1">
         <v>4.49</v>
       </c>
-      <c r="E13" t="s">
-        <v>48</v>
+      <c r="E13" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="F13">
         <v>11.65</v>
@@ -1123,25 +1213,28 @@
         <v>13</v>
       </c>
       <c r="S13" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="T13">
-        <f>SUM(T10:X12)</f>
-        <v>3720</v>
+        <f>SUM(T10:Y12)</f>
+        <v>4110</v>
       </c>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>91</v>
+      </c>
       <c r="B14">
         <v>9.99</v>
       </c>
       <c r="C14" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D14" s="1">
         <v>7.28</v>
       </c>
-      <c r="E14" t="s">
-        <v>80</v>
+      <c r="E14" s="1" t="s">
+        <v>78</v>
       </c>
       <c r="F14">
         <v>29.98</v>
@@ -1151,189 +1244,268 @@
       </c>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
+        <v>92</v>
+      </c>
       <c r="B15">
         <v>9.99</v>
       </c>
       <c r="C15" t="s">
-        <v>48</v>
-      </c>
-      <c r="D15" s="4">
+        <v>46</v>
+      </c>
+      <c r="D15" s="7">
         <v>32.090000000000003</v>
       </c>
-      <c r="E15" t="s">
-        <v>81</v>
+      <c r="E15" s="7" t="s">
+        <v>79</v>
       </c>
       <c r="F15">
         <v>49.96</v>
       </c>
       <c r="G15" t="s">
-        <v>15</v>
+        <v>96</v>
       </c>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="D16" s="1">
+        <v>6.99</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>105</v>
+      </c>
       <c r="F16">
         <v>27.94</v>
       </c>
       <c r="G16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="S16" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="T16">
         <f>T8-T13</f>
-        <v>4746.7800000000007</v>
+        <v>4356.7800000000007</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="D17" s="1">
+        <v>4.97</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>106</v>
+      </c>
       <c r="F17">
         <v>12.58</v>
       </c>
       <c r="G17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D18" s="1"/>
+      <c r="E18" s="1" t="s">
+        <v>99</v>
+      </c>
       <c r="F18">
         <v>12.99</v>
       </c>
       <c r="G18" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D19" s="1"/>
+      <c r="E19" s="1" t="s">
+        <v>100</v>
+      </c>
       <c r="F19">
         <v>30</v>
       </c>
       <c r="G19" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D20" s="1"/>
+      <c r="E20" s="1" t="s">
+        <v>101</v>
+      </c>
       <c r="F20" s="1">
         <v>30</v>
       </c>
-      <c r="G20" t="s">
-        <v>52</v>
+      <c r="G20" s="1" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D21" s="1"/>
+      <c r="E21" s="1" t="s">
+        <v>107</v>
+      </c>
       <c r="F21" s="1">
         <v>11.29</v>
       </c>
-      <c r="G21" t="s">
-        <v>82</v>
+      <c r="G21" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D22" s="1"/>
+      <c r="E22" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="F22" s="1">
+        <v>24.4</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D23" s="1"/>
+      <c r="E23" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="F23" s="1">
+        <v>11.75</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F24" s="4">
+        <v>26.74</v>
+      </c>
+      <c r="G24" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>18</v>
-      </c>
-      <c r="B25">
-        <f>SUM(B2:B22)</f>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>17</v>
+      </c>
+      <c r="B29">
+        <f>SUM(B2:B24)</f>
         <v>138.84</v>
       </c>
-      <c r="D25">
+      <c r="D29">
         <f>SUM(D2:D22)</f>
-        <v>268.85000000000002</v>
-      </c>
-      <c r="F25">
+        <v>281.41000000000008</v>
+      </c>
+      <c r="F29">
         <f>SUM(F2:F24)</f>
-        <v>346.40000000000003</v>
-      </c>
-      <c r="H25">
+        <v>409.29</v>
+      </c>
+      <c r="H29">
         <f>SUM(H2:H24)</f>
         <v>1035.18</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>49</v>
-      </c>
-      <c r="B26">
-        <f>B25*2</f>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>47</v>
+      </c>
+      <c r="B30">
+        <f>B29*2</f>
         <v>277.68</v>
       </c>
-      <c r="D26">
-        <f t="shared" ref="D26:H26" si="0">D25*2</f>
-        <v>537.70000000000005</v>
-      </c>
-      <c r="F26">
-        <f t="shared" si="0"/>
-        <v>692.80000000000007</v>
-      </c>
-      <c r="H26">
+      <c r="D30">
+        <f t="shared" ref="D30:H30" si="0">D29*2</f>
+        <v>562.82000000000016</v>
+      </c>
+      <c r="F30">
+        <f>F29*2</f>
+        <v>818.58</v>
+      </c>
+      <c r="H30">
         <f t="shared" si="0"/>
         <v>2070.36</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>88</v>
-      </c>
-      <c r="B27">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>86</v>
+      </c>
+      <c r="B31">
         <v>0</v>
       </c>
-      <c r="C27" t="s">
-        <v>50</v>
-      </c>
-      <c r="D27">
-        <f>32.09*2</f>
+      <c r="C31" t="s">
+        <v>48</v>
+      </c>
+      <c r="D31">
+        <f>D15*2</f>
         <v>64.180000000000007</v>
       </c>
-      <c r="E27" t="s">
-        <v>50</v>
-      </c>
-      <c r="F27">
+      <c r="E31" t="s">
+        <v>48</v>
+      </c>
+      <c r="F31">
         <v>0</v>
       </c>
-      <c r="G27" t="s">
-        <v>50</v>
-      </c>
-      <c r="H27">
+      <c r="G31" t="s">
+        <v>48</v>
+      </c>
+      <c r="H31">
         <v>0</v>
       </c>
-      <c r="I27" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>89</v>
-      </c>
-      <c r="B28">
-        <f>B26-B27</f>
+      <c r="I31" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="B32" s="6">
+        <f>B30-B31</f>
         <v>277.68</v>
       </c>
-      <c r="D28">
-        <f t="shared" ref="C28:H28" si="1">D26-D27</f>
-        <v>473.52000000000004</v>
-      </c>
-      <c r="F28">
+      <c r="C32" s="6"/>
+      <c r="D32" s="6">
+        <f t="shared" ref="D32:H32" si="1">D30-D31</f>
+        <v>498.64000000000016</v>
+      </c>
+      <c r="E32" s="6"/>
+      <c r="F32" s="6">
         <f t="shared" si="1"/>
-        <v>692.80000000000007</v>
-      </c>
-      <c r="H28">
+        <v>818.58</v>
+      </c>
+      <c r="G32" s="6"/>
+      <c r="H32" s="6">
         <f t="shared" si="1"/>
         <v>2070.36</v>
       </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>24</v>
-      </c>
-      <c r="B29">
-        <f>SUM(B25:M25)</f>
-        <v>1789.2700000000002</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>25</v>
-      </c>
-      <c r="B31">
-        <f>B29*2</f>
-        <v>3578.5400000000004</v>
+      <c r="I32" s="6"/>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>22</v>
+      </c>
+      <c r="B33">
+        <f>SUM(B29:M29)</f>
+        <v>1864.7200000000003</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>23</v>
+      </c>
+      <c r="B35">
+        <f>B33*2</f>
+        <v>3729.4400000000005</v>
       </c>
     </row>
   </sheetData>
@@ -1356,22 +1528,22 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G1" t="s">
         <v>72</v>
       </c>
-      <c r="B1" t="s">
-        <v>75</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="H1" t="s">
         <v>73</v>
-      </c>
-      <c r="E1" t="s">
-        <v>75</v>
-      </c>
-      <c r="G1" t="s">
-        <v>74</v>
-      </c>
-      <c r="H1" t="s">
-        <v>75</v>
       </c>
     </row>
   </sheetData>

--- a/Savings.xlsx
+++ b/Savings.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="109">
   <si>
     <t>Funko</t>
   </si>
@@ -355,6 +355,9 @@
   </si>
   <si>
     <t>Chesire 2</t>
+  </si>
+  <si>
+    <t>On Ally</t>
   </si>
 </sst>
 </file>
@@ -718,7 +721,7 @@
   <dimension ref="A1:Z35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1034,7 +1037,7 @@
         <v>41</v>
       </c>
       <c r="D9" s="1">
-        <v>10.4</v>
+        <v>9.23</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>49</v>
@@ -1290,7 +1293,7 @@
         <v>4356.7800000000007</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>94</v>
       </c>
@@ -1306,9 +1309,22 @@
       <c r="G17" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D18" s="1"/>
+      <c r="I17">
+        <f>SUM(D9:D14)+SUM(D16:D17)</f>
+        <v>56.410000000000004</v>
+      </c>
+      <c r="J17">
+        <f>2*I17</f>
+        <v>112.82000000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="D18" s="1">
+        <v>6.48</v>
+      </c>
       <c r="E18" s="1" t="s">
         <v>99</v>
       </c>
@@ -1319,8 +1335,10 @@
         <v>34</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D19" s="1"/>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D19" s="1">
+        <v>6.94</v>
+      </c>
       <c r="E19" s="1" t="s">
         <v>100</v>
       </c>
@@ -1330,9 +1348,15 @@
       <c r="G19" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D20" s="1"/>
+      <c r="I19">
+        <f>277.68+I17*2</f>
+        <v>390.5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D20" s="1">
+        <v>8.86</v>
+      </c>
       <c r="E20" s="1" t="s">
         <v>101</v>
       </c>
@@ -1343,8 +1367,10 @@
         <v>50</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D21" s="1"/>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D21" s="1">
+        <v>16.760000000000002</v>
+      </c>
       <c r="E21" s="1" t="s">
         <v>107</v>
       </c>
@@ -1355,8 +1381,10 @@
         <v>80</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D22" s="1"/>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D22" s="1">
+        <v>8.48</v>
+      </c>
       <c r="E22" s="1" t="s">
         <v>103</v>
       </c>
@@ -1367,8 +1395,10 @@
         <v>88</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D23" s="1"/>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D23" s="1">
+        <v>10.99</v>
+      </c>
       <c r="E23" s="1" t="s">
         <v>104</v>
       </c>
@@ -1379,7 +1409,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F24" s="4">
         <v>26.74</v>
       </c>
@@ -1387,13 +1417,15 @@
         <v>98</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="F25" s="1"/>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F25" s="1">
+        <v>17.95</v>
+      </c>
       <c r="G25" s="1" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>17</v>
       </c>
@@ -1402,19 +1434,19 @@
         <v>138.84</v>
       </c>
       <c r="D29">
-        <f>SUM(D2:D22)</f>
-        <v>281.41000000000008</v>
+        <f>SUM(D2:D23)</f>
+        <v>338.75000000000011</v>
       </c>
       <c r="F29">
-        <f>SUM(F2:F24)</f>
-        <v>409.29</v>
+        <f>SUM(F2:F25)</f>
+        <v>427.24</v>
       </c>
       <c r="H29">
         <f>SUM(H2:H24)</f>
         <v>1035.18</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>47</v>
       </c>
@@ -1424,18 +1456,18 @@
       </c>
       <c r="D30">
         <f t="shared" ref="D30:H30" si="0">D29*2</f>
-        <v>562.82000000000016</v>
+        <v>677.50000000000023</v>
       </c>
       <c r="F30">
         <f>F29*2</f>
-        <v>818.58</v>
+        <v>854.48</v>
       </c>
       <c r="H30">
         <f t="shared" si="0"/>
         <v>2070.36</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>86</v>
       </c>
@@ -1465,7 +1497,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
         <v>87</v>
       </c>
@@ -1476,12 +1508,12 @@
       <c r="C32" s="6"/>
       <c r="D32" s="6">
         <f t="shared" ref="D32:H32" si="1">D30-D31</f>
-        <v>498.64000000000016</v>
+        <v>613.32000000000016</v>
       </c>
       <c r="E32" s="6"/>
       <c r="F32" s="6">
         <f t="shared" si="1"/>
-        <v>818.58</v>
+        <v>854.48</v>
       </c>
       <c r="G32" s="6"/>
       <c r="H32" s="6">
@@ -1496,7 +1528,7 @@
       </c>
       <c r="B33">
         <f>SUM(B29:M29)</f>
-        <v>1864.7200000000003</v>
+        <v>1940.0100000000002</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
@@ -1505,7 +1537,7 @@
       </c>
       <c r="B35">
         <f>B33*2</f>
-        <v>3729.4400000000005</v>
+        <v>3880.0200000000004</v>
       </c>
     </row>
   </sheetData>

--- a/Savings.xlsx
+++ b/Savings.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="111">
   <si>
     <t>Funko</t>
   </si>
@@ -358,6 +358,12 @@
   </si>
   <si>
     <t>On Ally</t>
+  </si>
+  <si>
+    <t>Slippers</t>
+  </si>
+  <si>
+    <t>Sally Stg</t>
   </si>
 </sst>
 </file>
@@ -720,8 +726,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1254,7 +1260,7 @@
         <v>9.99</v>
       </c>
       <c r="C15" t="s">
-        <v>46</v>
+        <v>110</v>
       </c>
       <c r="D15" s="7">
         <v>32.090000000000003</v>
@@ -1293,7 +1299,7 @@
         <v>4356.7800000000007</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>94</v>
       </c>
@@ -1309,16 +1315,8 @@
       <c r="G17" t="s">
         <v>16</v>
       </c>
-      <c r="I17">
-        <f>SUM(D9:D14)+SUM(D16:D17)</f>
-        <v>56.410000000000004</v>
-      </c>
-      <c r="J17">
-        <f>2*I17</f>
-        <v>112.82000000000001</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>108</v>
       </c>
@@ -1335,7 +1333,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D19" s="1">
         <v>6.94</v>
       </c>
@@ -1348,12 +1346,8 @@
       <c r="G19" t="s">
         <v>43</v>
       </c>
-      <c r="I19">
-        <f>277.68+I17*2</f>
-        <v>390.5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D20" s="1">
         <v>8.86</v>
       </c>
@@ -1367,7 +1361,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D21" s="1">
         <v>16.760000000000002</v>
       </c>
@@ -1381,7 +1375,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D22" s="1">
         <v>8.48</v>
       </c>
@@ -1395,7 +1389,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D23" s="1">
         <v>10.99</v>
       </c>
@@ -1409,7 +1403,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F24" s="4">
         <v>26.74</v>
       </c>
@@ -1417,7 +1411,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F25" s="1">
         <v>17.95</v>
       </c>
@@ -1425,7 +1419,15 @@
         <v>102</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F26" s="1">
+        <v>18.989999999999998</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>17</v>
       </c>
@@ -1438,15 +1440,15 @@
         <v>338.75000000000011</v>
       </c>
       <c r="F29">
-        <f>SUM(F2:F25)</f>
-        <v>427.24</v>
+        <f>SUM(F2:F26)</f>
+        <v>446.23</v>
       </c>
       <c r="H29">
         <f>SUM(H2:H24)</f>
         <v>1035.18</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>47</v>
       </c>
@@ -1460,14 +1462,14 @@
       </c>
       <c r="F30">
         <f>F29*2</f>
-        <v>854.48</v>
+        <v>892.46</v>
       </c>
       <c r="H30">
         <f t="shared" si="0"/>
         <v>2070.36</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>86</v>
       </c>
@@ -1497,7 +1499,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
         <v>87</v>
       </c>
@@ -1513,7 +1515,7 @@
       <c r="E32" s="6"/>
       <c r="F32" s="6">
         <f t="shared" si="1"/>
-        <v>854.48</v>
+        <v>892.46</v>
       </c>
       <c r="G32" s="6"/>
       <c r="H32" s="6">
@@ -1528,7 +1530,7 @@
       </c>
       <c r="B33">
         <f>SUM(B29:M29)</f>
-        <v>1940.0100000000002</v>
+        <v>1959.0000000000002</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
@@ -1537,7 +1539,7 @@
       </c>
       <c r="B35">
         <f>B33*2</f>
-        <v>3880.0200000000004</v>
+        <v>3918.0000000000005</v>
       </c>
     </row>
   </sheetData>

--- a/Savings.xlsx
+++ b/Savings.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rjacome\Documents\GitHub\CurriculumVitae\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ricardo Jacome\Documents\GitHub\CurriculumVitae\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3254E3B7-53F7-4D4F-A6B7-168BFF7F6FFD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="20715" windowHeight="13275"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -369,7 +370,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
   </numFmts>
@@ -723,22 +724,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="L22" sqref="L22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="13" customWidth="1"/>
-    <col min="7" max="7" width="9.7109375" customWidth="1"/>
-    <col min="14" max="14" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.42578125" customWidth="1"/>
+    <col min="7" max="7" width="9.6640625" customWidth="1"/>
+    <col min="14" max="14" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>10</v>
       </c>
@@ -773,7 +774,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B2">
         <v>6.94</v>
       </c>
@@ -824,7 +825,7 @@
         <v>64.180000000000007</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B3">
         <v>9.65</v>
       </c>
@@ -863,7 +864,7 @@
         <v>1411.13</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B4">
         <v>4.99</v>
       </c>
@@ -898,7 +899,7 @@
         <v>1411.13</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B5">
         <v>6.82</v>
       </c>
@@ -937,7 +938,7 @@
         <v>1411.13</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>81</v>
       </c>
@@ -973,7 +974,7 @@
         <v>1411.13</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>82</v>
       </c>
@@ -1002,7 +1003,7 @@
         <v>1411.13</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>83</v>
       </c>
@@ -1032,7 +1033,7 @@
         <v>8466.7800000000007</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>84</v>
       </c>
@@ -1073,7 +1074,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>85</v>
       </c>
@@ -1117,7 +1118,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B11">
         <v>10.99</v>
       </c>
@@ -1158,7 +1159,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B12">
         <v>22</v>
       </c>
@@ -1199,7 +1200,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
         <v>90</v>
       </c>
@@ -1229,7 +1230,7 @@
         <v>4110</v>
       </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
         <v>91</v>
       </c>
@@ -1252,7 +1253,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
         <v>92</v>
       </c>
@@ -1275,7 +1276,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
         <v>93</v>
       </c>
@@ -1299,7 +1300,7 @@
         <v>4356.7800000000007</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
         <v>94</v>
       </c>
@@ -1316,7 +1317,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
         <v>108</v>
       </c>
@@ -1333,7 +1334,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D19" s="1">
         <v>6.94</v>
       </c>
@@ -1347,7 +1348,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D20" s="1">
         <v>8.86</v>
       </c>
@@ -1361,7 +1362,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D21" s="1">
         <v>16.760000000000002</v>
       </c>
@@ -1375,7 +1376,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D22" s="1">
         <v>8.48</v>
       </c>
@@ -1389,7 +1390,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D23" s="1">
         <v>10.99</v>
       </c>
@@ -1403,7 +1404,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="F24" s="4">
         <v>26.74</v>
       </c>
@@ -1411,7 +1412,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="F25" s="1">
         <v>17.95</v>
       </c>
@@ -1419,7 +1420,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="F26" s="1">
         <v>18.989999999999998</v>
       </c>
@@ -1427,7 +1428,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>17</v>
       </c>
@@ -1448,7 +1449,7 @@
         <v>1035.18</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>47</v>
       </c>
@@ -1469,7 +1470,7 @@
         <v>2070.36</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>86</v>
       </c>
@@ -1499,7 +1500,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" s="6" t="s">
         <v>87</v>
       </c>
@@ -1524,7 +1525,7 @@
       </c>
       <c r="I32" s="6"/>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>22</v>
       </c>
@@ -1533,7 +1534,7 @@
         <v>1959.0000000000002</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>23</v>
       </c>
@@ -1548,19 +1549,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.5703125" customWidth="1"/>
+    <col min="1" max="1" width="10.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>70</v>
       </c>

--- a/Savings.xlsx
+++ b/Savings.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="112">
   <si>
     <t>Funko</t>
   </si>
@@ -364,6 +364,9 @@
   </si>
   <si>
     <t>Sally Stg</t>
+  </si>
+  <si>
+    <t>Yes</t>
   </si>
 </sst>
 </file>
@@ -389,7 +392,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -414,12 +417,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -434,7 +431,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -442,7 +439,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -726,8 +722,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="L22" sqref="L22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O29" sqref="O29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -774,10 +770,10 @@
       </c>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="B2">
+      <c r="B2" s="5">
         <v>6.94</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="5" t="s">
         <v>33</v>
       </c>
       <c r="D2">
@@ -821,14 +817,14 @@
       </c>
       <c r="Z2">
         <f>SUM(B31+D31+F31+H31)</f>
-        <v>64.180000000000007</v>
+        <v>431.14</v>
       </c>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="B3">
+      <c r="B3" s="5">
         <v>9.65</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="5" t="s">
         <v>35</v>
       </c>
       <c r="D3">
@@ -864,10 +860,10 @@
       </c>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="B4">
+      <c r="B4" s="5">
         <v>4.99</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="5" t="s">
         <v>36</v>
       </c>
       <c r="D4">
@@ -899,10 +895,10 @@
       </c>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="B5">
+      <c r="B5" s="5">
         <v>6.82</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="5" t="s">
         <v>37</v>
       </c>
       <c r="D5">
@@ -941,10 +937,10 @@
       <c r="A6" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="5">
         <v>8.89</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="5" t="s">
         <v>38</v>
       </c>
       <c r="D6">
@@ -977,10 +973,10 @@
       <c r="A7" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="5">
         <v>10.199999999999999</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="5" t="s">
         <v>39</v>
       </c>
       <c r="D7">
@@ -1006,10 +1002,10 @@
       <c r="A8" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="5">
         <v>5.85</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="5" t="s">
         <v>40</v>
       </c>
       <c r="D8">
@@ -1036,16 +1032,16 @@
       <c r="A9" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="5">
         <v>6</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D9" s="5">
         <v>9.23</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="E9" s="5" t="s">
         <v>49</v>
       </c>
       <c r="F9">
@@ -1077,16 +1073,16 @@
       <c r="A10" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="5">
         <v>17.54</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D10" s="5">
         <v>13.99</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="E10" s="5" t="s">
         <v>51</v>
       </c>
       <c r="F10">
@@ -1114,14 +1110,14 @@
         <v>100</v>
       </c>
       <c r="Y10">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="B11">
+      <c r="B11" s="5">
         <v>10.99</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="5" t="s">
         <v>24</v>
       </c>
       <c r="D11" s="1">
@@ -1155,20 +1151,20 @@
         <v>100</v>
       </c>
       <c r="Y11">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="B12">
+      <c r="B12" s="5">
         <v>22</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D12" s="5">
         <v>4.49</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="E12" s="5" t="s">
         <v>53</v>
       </c>
       <c r="F12">
@@ -1196,23 +1192,23 @@
         <v>100</v>
       </c>
       <c r="Y12">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="5">
         <v>8.99</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="D13" s="1">
-        <v>4.49</v>
-      </c>
-      <c r="E13" s="1" t="s">
+      <c r="D13" s="5">
+        <v>4.97</v>
+      </c>
+      <c r="E13" s="5" t="s">
         <v>46</v>
       </c>
       <c r="F13">
@@ -1226,17 +1222,17 @@
       </c>
       <c r="T13">
         <f>SUM(T10:Y12)</f>
-        <v>4110</v>
+        <v>4101</v>
       </c>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="5">
         <v>9.99</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="5" t="s">
         <v>45</v>
       </c>
       <c r="D14" s="1">
@@ -1256,16 +1252,16 @@
       <c r="A15" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="5">
         <v>9.99</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D15" s="5">
         <v>32.090000000000003</v>
       </c>
-      <c r="E15" s="7" t="s">
+      <c r="E15" s="5" t="s">
         <v>79</v>
       </c>
       <c r="F15">
@@ -1279,10 +1275,10 @@
       <c r="A16" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="D16" s="1">
+      <c r="D16" s="5">
         <v>6.99</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="E16" s="5" t="s">
         <v>105</v>
       </c>
       <c r="F16">
@@ -1291,22 +1287,30 @@
       <c r="G16" t="s">
         <v>15</v>
       </c>
+      <c r="J16">
+        <f>SUM(D9:D10)+SUM(D12:D13)+SUM(D16:D17)</f>
+        <v>44.64</v>
+      </c>
+      <c r="K16">
+        <f>2*J16</f>
+        <v>89.28</v>
+      </c>
       <c r="S16" t="s">
         <v>65</v>
       </c>
       <c r="T16">
         <f>T8-T13</f>
-        <v>4356.7800000000007</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+        <v>4365.7800000000007</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="D17" s="1">
+      <c r="D17" s="5">
         <v>4.97</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="E17" s="5" t="s">
         <v>106</v>
       </c>
       <c r="F17">
@@ -1316,7 +1320,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>108</v>
       </c>
@@ -1333,7 +1337,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D19" s="1">
         <v>6.94</v>
       </c>
@@ -1347,7 +1351,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D20" s="1">
         <v>8.86</v>
       </c>
@@ -1360,8 +1364,12 @@
       <c r="G20" s="1" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="O20">
+        <f>SUM(B31,D31)</f>
+        <v>431.14</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D21" s="1">
         <v>16.760000000000002</v>
       </c>
@@ -1375,7 +1383,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D22" s="1">
         <v>8.48</v>
       </c>
@@ -1389,7 +1397,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D23" s="1">
         <v>10.99</v>
       </c>
@@ -1403,7 +1411,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="F24" s="4">
         <v>26.74</v>
       </c>
@@ -1411,15 +1419,19 @@
         <v>98</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="F25" s="1">
         <v>17.95</v>
       </c>
       <c r="G25" s="1" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L25">
+        <f>277.68+89.28</f>
+        <v>366.96000000000004</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="F26" s="1">
         <v>18.989999999999998</v>
       </c>
@@ -1427,7 +1439,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>17</v>
       </c>
@@ -1437,7 +1449,7 @@
       </c>
       <c r="D29">
         <f>SUM(D2:D23)</f>
-        <v>338.75000000000011</v>
+        <v>339.23000000000008</v>
       </c>
       <c r="F29">
         <f>SUM(F2:F26)</f>
@@ -1448,7 +1460,7 @@
         <v>1035.18</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>47</v>
       </c>
@@ -1458,7 +1470,7 @@
       </c>
       <c r="D30">
         <f t="shared" ref="D30:H30" si="0">D29*2</f>
-        <v>677.50000000000023</v>
+        <v>678.46000000000015</v>
       </c>
       <c r="F30">
         <f>F29*2</f>
@@ -1469,19 +1481,19 @@
         <v>2070.36</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>86</v>
       </c>
       <c r="B31">
-        <v>0</v>
+        <v>277.68</v>
       </c>
       <c r="C31" t="s">
-        <v>48</v>
+        <v>111</v>
       </c>
       <c r="D31">
-        <f>D15*2</f>
-        <v>64.180000000000007</v>
+        <f>D15*2+2*(SUM(D9:D10)+SUM(D12:D13)+SUM(D16:D17))</f>
+        <v>153.46</v>
       </c>
       <c r="E31" t="s">
         <v>48</v>
@@ -1499,18 +1511,18 @@
         <v>48</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
         <v>87</v>
       </c>
       <c r="B32" s="6">
         <f>B30-B31</f>
-        <v>277.68</v>
+        <v>0</v>
       </c>
       <c r="C32" s="6"/>
       <c r="D32" s="6">
         <f t="shared" ref="D32:H32" si="1">D30-D31</f>
-        <v>613.32000000000016</v>
+        <v>525.00000000000011</v>
       </c>
       <c r="E32" s="6"/>
       <c r="F32" s="6">
@@ -1530,7 +1542,7 @@
       </c>
       <c r="B33">
         <f>SUM(B29:M29)</f>
-        <v>1959.0000000000002</v>
+        <v>1959.48</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
@@ -1539,7 +1551,7 @@
       </c>
       <c r="B35">
         <f>B33*2</f>
-        <v>3918.0000000000005</v>
+        <v>3918.96</v>
       </c>
     </row>
   </sheetData>

--- a/Savings.xlsx
+++ b/Savings.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="115">
   <si>
     <t>Funko</t>
   </si>
@@ -367,6 +367,15 @@
   </si>
   <si>
     <t>Yes</t>
+  </si>
+  <si>
+    <t>Elec Keg</t>
+  </si>
+  <si>
+    <t>Kick Pad</t>
+  </si>
+  <si>
+    <t>Finger Glove</t>
   </si>
 </sst>
 </file>
@@ -720,10 +729,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z35"/>
+  <dimension ref="A1:Z38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O29" sqref="O29"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -816,8 +825,8 @@
         <v>1411.13</v>
       </c>
       <c r="Z2">
-        <f>SUM(B31+D31+F31+H31)</f>
-        <v>431.14</v>
+        <f>SUM(B34+D34+F34+H34)</f>
+        <v>574.4</v>
       </c>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.25">
@@ -1287,14 +1296,6 @@
       <c r="G16" t="s">
         <v>15</v>
       </c>
-      <c r="J16">
-        <f>SUM(D9:D10)+SUM(D12:D13)+SUM(D16:D17)</f>
-        <v>44.64</v>
-      </c>
-      <c r="K16">
-        <f>2*J16</f>
-        <v>89.28</v>
-      </c>
       <c r="S16" t="s">
         <v>65</v>
       </c>
@@ -1350,6 +1351,10 @@
       <c r="G19" t="s">
         <v>43</v>
       </c>
+      <c r="J19">
+        <f>SUM(F24,F26,F27)*2</f>
+        <v>143.26</v>
+      </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D20" s="1">
@@ -1365,7 +1370,7 @@
         <v>50</v>
       </c>
       <c r="O20">
-        <f>SUM(B31,D31)</f>
+        <f>SUM(B34,D34)</f>
         <v>431.14</v>
       </c>
     </row>
@@ -1432,126 +1437,150 @@
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="F26" s="1">
+      <c r="F26" s="5">
         <v>18.989999999999998</v>
       </c>
-      <c r="G26" s="1" t="s">
+      <c r="G26" s="5" t="s">
         <v>109</v>
       </c>
     </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="F27" s="5">
+        <v>25.9</v>
+      </c>
+      <c r="G27" s="5" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="F28">
+        <v>16.989999999999998</v>
+      </c>
+      <c r="G28" t="s">
+        <v>113</v>
+      </c>
+    </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+      <c r="F29">
+        <v>10.53</v>
+      </c>
+      <c r="G29" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
         <v>17</v>
       </c>
-      <c r="B29">
-        <f>SUM(B2:B24)</f>
+      <c r="B32">
+        <f>SUM(B2:B15)</f>
         <v>138.84</v>
       </c>
-      <c r="D29">
-        <f>SUM(D2:D23)</f>
+      <c r="D32">
+        <f>SUM(D2:D27)</f>
         <v>339.23000000000008</v>
       </c>
-      <c r="F29">
-        <f>SUM(F2:F26)</f>
-        <v>446.23</v>
-      </c>
-      <c r="H29">
+      <c r="F32">
+        <f>SUM(F2:F31)</f>
+        <v>499.65</v>
+      </c>
+      <c r="H32">
         <f>SUM(H2:H24)</f>
         <v>1035.18</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
         <v>47</v>
       </c>
-      <c r="B30">
-        <f>B29*2</f>
+      <c r="B33">
+        <f>B32*2</f>
         <v>277.68</v>
       </c>
-      <c r="D30">
-        <f t="shared" ref="D30:H30" si="0">D29*2</f>
+      <c r="D33">
+        <f>D32*2</f>
         <v>678.46000000000015</v>
       </c>
-      <c r="F30">
-        <f>F29*2</f>
-        <v>892.46</v>
-      </c>
-      <c r="H30">
-        <f t="shared" si="0"/>
+      <c r="F33">
+        <f>F32*2</f>
+        <v>999.3</v>
+      </c>
+      <c r="H33">
+        <f t="shared" ref="H33" si="0">H32*2</f>
         <v>2070.36</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
         <v>86</v>
       </c>
-      <c r="B31">
+      <c r="B34">
         <v>277.68</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C34" t="s">
         <v>111</v>
       </c>
-      <c r="D31">
+      <c r="D34">
         <f>D15*2+2*(SUM(D9:D10)+SUM(D12:D13)+SUM(D16:D17))</f>
         <v>153.46</v>
       </c>
-      <c r="E31" t="s">
+      <c r="E34" t="s">
         <v>48</v>
       </c>
-      <c r="F31">
+      <c r="F34">
+        <v>143.26</v>
+      </c>
+      <c r="G34" t="s">
+        <v>48</v>
+      </c>
+      <c r="H34">
         <v>0</v>
       </c>
-      <c r="G31" t="s">
+      <c r="I34" t="s">
         <v>48</v>
       </c>
-      <c r="H31">
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="B35" s="6">
+        <f>B33-B34</f>
         <v>0</v>
       </c>
-      <c r="I31" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A32" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="B32" s="6">
-        <f>B30-B31</f>
-        <v>0</v>
-      </c>
-      <c r="C32" s="6"/>
-      <c r="D32" s="6">
-        <f t="shared" ref="D32:H32" si="1">D30-D31</f>
+      <c r="C35" s="6"/>
+      <c r="D35" s="6">
+        <f t="shared" ref="D35:H35" si="1">D33-D34</f>
         <v>525.00000000000011</v>
       </c>
-      <c r="E32" s="6"/>
-      <c r="F32" s="6">
+      <c r="E35" s="6"/>
+      <c r="F35" s="6">
         <f t="shared" si="1"/>
-        <v>892.46</v>
-      </c>
-      <c r="G32" s="6"/>
-      <c r="H32" s="6">
+        <v>856.04</v>
+      </c>
+      <c r="G35" s="6"/>
+      <c r="H35" s="6">
         <f t="shared" si="1"/>
         <v>2070.36</v>
       </c>
-      <c r="I32" s="6"/>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+      <c r="I35" s="6"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
         <v>22</v>
       </c>
-      <c r="B33">
-        <f>SUM(B29:M29)</f>
-        <v>1959.48</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+      <c r="B36">
+        <f>SUM(B32:M32)</f>
+        <v>2012.9</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
         <v>23</v>
       </c>
-      <c r="B35">
-        <f>B33*2</f>
-        <v>3918.96</v>
+      <c r="B38">
+        <f>B36*2</f>
+        <v>4025.8</v>
       </c>
     </row>
   </sheetData>

--- a/Savings.xlsx
+++ b/Savings.xlsx
@@ -440,12 +440,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
@@ -732,7 +731,7 @@
   <dimension ref="A1:Z38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -779,10 +778,10 @@
       </c>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="B2" s="5">
+      <c r="B2" s="4">
         <v>6.94</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>33</v>
       </c>
       <c r="D2">
@@ -830,10 +829,10 @@
       </c>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="B3" s="5">
+      <c r="B3" s="4">
         <v>9.65</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>35</v>
       </c>
       <c r="D3">
@@ -869,10 +868,10 @@
       </c>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="B4" s="5">
+      <c r="B4" s="4">
         <v>4.99</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="4" t="s">
         <v>36</v>
       </c>
       <c r="D4">
@@ -904,10 +903,10 @@
       </c>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="B5" s="5">
+      <c r="B5" s="4">
         <v>6.82</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="4" t="s">
         <v>37</v>
       </c>
       <c r="D5">
@@ -946,10 +945,10 @@
       <c r="A6" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6" s="4">
         <v>8.89</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="4" t="s">
         <v>38</v>
       </c>
       <c r="D6">
@@ -982,10 +981,10 @@
       <c r="A7" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7" s="4">
         <v>10.199999999999999</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="4" t="s">
         <v>39</v>
       </c>
       <c r="D7">
@@ -1011,10 +1010,10 @@
       <c r="A8" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="B8" s="5">
+      <c r="B8" s="4">
         <v>5.85</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="4" t="s">
         <v>40</v>
       </c>
       <c r="D8">
@@ -1041,16 +1040,16 @@
       <c r="A9" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B9" s="5">
+      <c r="B9" s="4">
         <v>6</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D9" s="4">
         <v>9.23</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="E9" s="4" t="s">
         <v>49</v>
       </c>
       <c r="F9">
@@ -1082,16 +1081,16 @@
       <c r="A10" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="B10" s="5">
+      <c r="B10" s="4">
         <v>17.54</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D10" s="4">
         <v>13.99</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="E10" s="4" t="s">
         <v>51</v>
       </c>
       <c r="F10">
@@ -1123,10 +1122,10 @@
       </c>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="B11" s="5">
+      <c r="B11" s="4">
         <v>10.99</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="4" t="s">
         <v>24</v>
       </c>
       <c r="D11" s="1">
@@ -1164,16 +1163,16 @@
       </c>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="B12" s="5">
+      <c r="B12" s="4">
         <v>22</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D12" s="5">
+      <c r="D12" s="4">
         <v>4.49</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="E12" s="4" t="s">
         <v>53</v>
       </c>
       <c r="F12">
@@ -1205,19 +1204,19 @@
       </c>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="B13" s="5">
+      <c r="B13" s="4">
         <v>8.99</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="D13" s="5">
+      <c r="D13" s="4">
         <v>4.97</v>
       </c>
-      <c r="E13" s="5" t="s">
+      <c r="E13" s="4" t="s">
         <v>46</v>
       </c>
       <c r="F13">
@@ -1235,13 +1234,13 @@
       </c>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="B14" s="5">
+      <c r="B14" s="4">
         <v>9.99</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="4" t="s">
         <v>45</v>
       </c>
       <c r="D14" s="1">
@@ -1258,19 +1257,19 @@
       </c>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="B15" s="5">
+      <c r="B15" s="4">
         <v>9.99</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="D15" s="5">
+      <c r="D15" s="4">
         <v>32.090000000000003</v>
       </c>
-      <c r="E15" s="5" t="s">
+      <c r="E15" s="4" t="s">
         <v>79</v>
       </c>
       <c r="F15">
@@ -1281,13 +1280,13 @@
       </c>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="D16" s="5">
+      <c r="D16" s="4">
         <v>6.99</v>
       </c>
-      <c r="E16" s="5" t="s">
+      <c r="E16" s="4" t="s">
         <v>105</v>
       </c>
       <c r="F16">
@@ -1300,18 +1299,18 @@
         <v>65</v>
       </c>
       <c r="T16">
-        <f>T8-T13</f>
-        <v>4365.7800000000007</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
+        <f>T8-T13-1500</f>
+        <v>2865.7800000000007</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="D17" s="5">
+      <c r="D17" s="4">
         <v>4.97</v>
       </c>
-      <c r="E17" s="5" t="s">
+      <c r="E17" s="4" t="s">
         <v>106</v>
       </c>
       <c r="F17">
@@ -1321,8 +1320,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A18" s="5" t="s">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
         <v>108</v>
       </c>
       <c r="D18" s="1">
@@ -1338,7 +1337,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D19" s="1">
         <v>6.94</v>
       </c>
@@ -1346,17 +1345,13 @@
         <v>100</v>
       </c>
       <c r="F19">
-        <v>30</v>
+        <v>29.99</v>
       </c>
       <c r="G19" t="s">
         <v>43</v>
       </c>
-      <c r="J19">
-        <f>SUM(F24,F26,F27)*2</f>
-        <v>143.26</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D20" s="1">
         <v>8.86</v>
       </c>
@@ -1369,12 +1364,8 @@
       <c r="G20" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="O20">
-        <f>SUM(B34,D34)</f>
-        <v>431.14</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D21" s="1">
         <v>16.760000000000002</v>
       </c>
@@ -1388,7 +1379,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D22" s="1">
         <v>8.48</v>
       </c>
@@ -1402,7 +1393,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D23" s="1">
         <v>10.99</v>
       </c>
@@ -1416,43 +1407,39 @@
         <v>89</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F24" s="4">
         <v>26.74</v>
       </c>
-      <c r="G24" t="s">
+      <c r="G24" s="4" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F25" s="1">
         <v>17.95</v>
       </c>
       <c r="G25" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="L25">
-        <f>277.68+89.28</f>
-        <v>366.96000000000004</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="F26" s="5">
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F26" s="4">
         <v>18.989999999999998</v>
       </c>
-      <c r="G26" s="5" t="s">
+      <c r="G26" s="4" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="F27" s="5">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F27" s="4">
         <v>25.9</v>
       </c>
-      <c r="G27" s="5" t="s">
+      <c r="G27" s="4" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F28">
         <v>16.989999999999998</v>
       </c>
@@ -1460,7 +1447,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F29">
         <v>10.53</v>
       </c>
@@ -1468,7 +1455,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>17</v>
       </c>
@@ -1482,7 +1469,7 @@
       </c>
       <c r="F32">
         <f>SUM(F2:F31)</f>
-        <v>499.65</v>
+        <v>499.64</v>
       </c>
       <c r="H32">
         <f>SUM(H2:H24)</f>
@@ -1503,7 +1490,7 @@
       </c>
       <c r="F33">
         <f>F32*2</f>
-        <v>999.3</v>
+        <v>999.28</v>
       </c>
       <c r="H33">
         <f t="shared" ref="H33" si="0">H32*2</f>
@@ -1541,29 +1528,29 @@
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="6" t="s">
+      <c r="A35" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="B35" s="6">
+      <c r="B35" s="5">
         <f>B33-B34</f>
         <v>0</v>
       </c>
-      <c r="C35" s="6"/>
-      <c r="D35" s="6">
+      <c r="C35" s="5"/>
+      <c r="D35" s="5">
         <f t="shared" ref="D35:H35" si="1">D33-D34</f>
         <v>525.00000000000011</v>
       </c>
-      <c r="E35" s="6"/>
-      <c r="F35" s="6">
+      <c r="E35" s="5"/>
+      <c r="F35" s="5">
         <f t="shared" si="1"/>
-        <v>856.04</v>
-      </c>
-      <c r="G35" s="6"/>
-      <c r="H35" s="6">
+        <v>856.02</v>
+      </c>
+      <c r="G35" s="5"/>
+      <c r="H35" s="5">
         <f t="shared" si="1"/>
         <v>2070.36</v>
       </c>
-      <c r="I35" s="6"/>
+      <c r="I35" s="5"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
@@ -1571,7 +1558,7 @@
       </c>
       <c r="B36">
         <f>SUM(B32:M32)</f>
-        <v>2012.9</v>
+        <v>2012.89</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
@@ -1580,7 +1567,7 @@
       </c>
       <c r="B38">
         <f>B36*2</f>
-        <v>4025.8</v>
+        <v>4025.78</v>
       </c>
     </row>
   </sheetData>

--- a/Savings.xlsx
+++ b/Savings.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rjacome\Documents\GitHub\CurriculumVitae\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ricardo Jacome\Documents\GitHub\CurriculumVitae\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C43FE7CD-42EC-4343-81E6-6EA0727EA9B0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="20715" windowHeight="13275"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="118">
   <si>
     <t>Funko</t>
   </si>
@@ -376,12 +377,21 @@
   </si>
   <si>
     <t>Finger Glove</t>
+  </si>
+  <si>
+    <t>Vinyl</t>
+  </si>
+  <si>
+    <t>Plantansia</t>
+  </si>
+  <si>
+    <t>Thinkgeek</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
   </numFmts>
@@ -728,22 +738,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="13" customWidth="1"/>
-    <col min="7" max="7" width="9.7109375" customWidth="1"/>
-    <col min="14" max="14" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.42578125" customWidth="1"/>
+    <col min="7" max="7" width="9.6640625" customWidth="1"/>
+    <col min="14" max="14" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>10</v>
       </c>
@@ -778,7 +788,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B2" s="5">
         <v>6.94</v>
       </c>
@@ -829,7 +839,7 @@
         <v>574.4</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B3" s="5">
         <v>9.65</v>
       </c>
@@ -868,7 +878,7 @@
         <v>1411.13</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B4" s="5">
         <v>4.99</v>
       </c>
@@ -903,7 +913,7 @@
         <v>1411.13</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B5" s="5">
         <v>6.82</v>
       </c>
@@ -942,7 +952,7 @@
         <v>1411.13</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>81</v>
       </c>
@@ -963,6 +973,12 @@
       </c>
       <c r="G6" t="s">
         <v>6</v>
+      </c>
+      <c r="H6">
+        <v>50</v>
+      </c>
+      <c r="I6" t="s">
+        <v>115</v>
       </c>
       <c r="N6" s="2" t="s">
         <v>74</v>
@@ -978,7 +994,7 @@
         <v>1411.13</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>82</v>
       </c>
@@ -1000,6 +1016,12 @@
       <c r="G7" t="s">
         <v>6</v>
       </c>
+      <c r="H7">
+        <v>25</v>
+      </c>
+      <c r="I7" t="s">
+        <v>116</v>
+      </c>
       <c r="S7" t="s">
         <v>61</v>
       </c>
@@ -1007,7 +1029,7 @@
         <v>1411.13</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>83</v>
       </c>
@@ -1028,6 +1050,12 @@
       </c>
       <c r="G8" t="s">
         <v>7</v>
+      </c>
+      <c r="H8">
+        <v>40</v>
+      </c>
+      <c r="I8" t="s">
+        <v>117</v>
       </c>
       <c r="S8" t="s">
         <v>63</v>
@@ -1037,7 +1065,7 @@
         <v>8466.7800000000007</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>84</v>
       </c>
@@ -1078,7 +1106,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>85</v>
       </c>
@@ -1122,7 +1150,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B11" s="5">
         <v>10.99</v>
       </c>
@@ -1163,7 +1191,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B12" s="5">
         <v>22</v>
       </c>
@@ -1204,7 +1232,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
         <v>90</v>
       </c>
@@ -1234,7 +1262,7 @@
         <v>4101</v>
       </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
         <v>91</v>
       </c>
@@ -1257,7 +1285,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
         <v>92</v>
       </c>
@@ -1280,7 +1308,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
         <v>93</v>
       </c>
@@ -1304,7 +1332,7 @@
         <v>4365.7800000000007</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
         <v>94</v>
       </c>
@@ -1321,7 +1349,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
         <v>108</v>
       </c>
@@ -1338,7 +1366,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D19" s="1">
         <v>6.94</v>
       </c>
@@ -1351,12 +1379,8 @@
       <c r="G19" t="s">
         <v>43</v>
       </c>
-      <c r="J19">
-        <f>SUM(F24,F26,F27)*2</f>
-        <v>143.26</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D20" s="1">
         <v>8.86</v>
       </c>
@@ -1369,12 +1393,8 @@
       <c r="G20" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="O20">
-        <f>SUM(B34,D34)</f>
-        <v>431.14</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D21" s="1">
         <v>16.760000000000002</v>
       </c>
@@ -1388,7 +1408,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D22" s="1">
         <v>8.48</v>
       </c>
@@ -1402,7 +1422,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D23" s="1">
         <v>10.99</v>
       </c>
@@ -1416,7 +1436,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="F24" s="4">
         <v>26.74</v>
       </c>
@@ -1424,19 +1444,15 @@
         <v>98</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="F25" s="1">
         <v>17.95</v>
       </c>
       <c r="G25" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="L25">
-        <f>277.68+89.28</f>
-        <v>366.96000000000004</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="F26" s="5">
         <v>18.989999999999998</v>
       </c>
@@ -1444,7 +1460,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="F27" s="5">
         <v>25.9</v>
       </c>
@@ -1452,7 +1468,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="F28">
         <v>16.989999999999998</v>
       </c>
@@ -1460,7 +1476,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="F29">
         <v>10.53</v>
       </c>
@@ -1468,7 +1484,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>17</v>
       </c>
@@ -1486,10 +1502,10 @@
       </c>
       <c r="H32">
         <f>SUM(H2:H24)</f>
-        <v>1035.18</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1150.18</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>47</v>
       </c>
@@ -1507,10 +1523,10 @@
       </c>
       <c r="H33">
         <f t="shared" ref="H33" si="0">H32*2</f>
-        <v>2070.36</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+        <v>2300.36</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>86</v>
       </c>
@@ -1540,7 +1556,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" s="6" t="s">
         <v>87</v>
       </c>
@@ -1561,26 +1577,26 @@
       <c r="G35" s="6"/>
       <c r="H35" s="6">
         <f t="shared" si="1"/>
-        <v>2070.36</v>
+        <v>2300.36</v>
       </c>
       <c r="I35" s="6"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>22</v>
       </c>
       <c r="B36">
         <f>SUM(B32:M32)</f>
-        <v>2012.9</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+        <v>2127.9</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>23</v>
       </c>
       <c r="B38">
         <f>B36*2</f>
-        <v>4025.8</v>
+        <v>4255.8</v>
       </c>
     </row>
   </sheetData>
@@ -1589,19 +1605,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.5703125" customWidth="1"/>
+    <col min="1" max="1" width="10.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>70</v>
       </c>

--- a/Savings.xlsx
+++ b/Savings.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ricardo Jacome\Documents\GitHub\CurriculumVitae\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rjacome\Documents\GitHub\CurriculumVitae\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C43FE7CD-42EC-4343-81E6-6EA0727EA9B0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -391,7 +390,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
   </numFmts>
@@ -738,22 +737,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13" customWidth="1"/>
-    <col min="7" max="7" width="9.6640625" customWidth="1"/>
-    <col min="14" max="14" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.44140625" customWidth="1"/>
+    <col min="7" max="7" width="9.7109375" customWidth="1"/>
+    <col min="14" max="14" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>10</v>
       </c>
@@ -788,17 +787,17 @@
         <v>69</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B2" s="5">
         <v>6.94</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="5">
         <v>35.94</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="5" t="s">
         <v>29</v>
       </c>
       <c r="F2">
@@ -836,20 +835,20 @@
       </c>
       <c r="Z2">
         <f>SUM(B34+D34+F34+H34)</f>
-        <v>574.4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
+        <v>957.88000000000011</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B3" s="5">
         <v>9.65</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="5">
         <v>32.090000000000003</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="5" t="s">
         <v>30</v>
       </c>
       <c r="F3">
@@ -878,17 +877,17 @@
         <v>1411.13</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B4" s="5">
         <v>4.99</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="5">
         <v>18.73</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="5" t="s">
         <v>31</v>
       </c>
       <c r="F4">
@@ -913,17 +912,17 @@
         <v>1411.13</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B5" s="5">
         <v>6.82</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="5">
         <v>38.25</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="5" t="s">
         <v>28</v>
       </c>
       <c r="F5">
@@ -952,7 +951,7 @@
         <v>1411.13</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>81</v>
       </c>
@@ -962,10 +961,10 @@
       <c r="C6" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="5">
         <v>23.74</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="5" t="s">
         <v>27</v>
       </c>
       <c r="F6">
@@ -994,7 +993,7 @@
         <v>1411.13</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>82</v>
       </c>
@@ -1004,10 +1003,10 @@
       <c r="C7" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="5">
         <v>22.99</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="5" t="s">
         <v>32</v>
       </c>
       <c r="F7">
@@ -1029,7 +1028,7 @@
         <v>1411.13</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>83</v>
       </c>
@@ -1039,10 +1038,10 @@
       <c r="C8" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="5">
         <v>20</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="5" t="s">
         <v>26</v>
       </c>
       <c r="F8">
@@ -1065,7 +1064,7 @@
         <v>8466.7800000000007</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>84</v>
       </c>
@@ -1106,7 +1105,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>85</v>
       </c>
@@ -1150,7 +1149,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B11" s="5">
         <v>10.99</v>
       </c>
@@ -1191,7 +1190,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B12" s="5">
         <v>22</v>
       </c>
@@ -1232,7 +1231,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>90</v>
       </c>
@@ -1262,7 +1261,7 @@
         <v>4101</v>
       </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>91</v>
       </c>
@@ -1285,7 +1284,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>92</v>
       </c>
@@ -1308,7 +1307,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>93</v>
       </c>
@@ -1332,7 +1331,7 @@
         <v>4365.7800000000007</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>94</v>
       </c>
@@ -1349,7 +1348,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>108</v>
       </c>
@@ -1366,7 +1365,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D19" s="1">
         <v>6.94</v>
       </c>
@@ -1380,7 +1379,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D20" s="1">
         <v>8.86</v>
       </c>
@@ -1394,7 +1393,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D21" s="1">
         <v>16.760000000000002</v>
       </c>
@@ -1408,7 +1407,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D22" s="1">
         <v>8.48</v>
       </c>
@@ -1422,7 +1421,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D23" s="1">
         <v>10.99</v>
       </c>
@@ -1436,7 +1435,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F24" s="4">
         <v>26.74</v>
       </c>
@@ -1444,7 +1443,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F25" s="1">
         <v>17.95</v>
       </c>
@@ -1452,7 +1451,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F26" s="5">
         <v>18.989999999999998</v>
       </c>
@@ -1460,7 +1459,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F27" s="5">
         <v>25.9</v>
       </c>
@@ -1468,7 +1467,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F28">
         <v>16.989999999999998</v>
       </c>
@@ -1476,7 +1475,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F29">
         <v>10.53</v>
       </c>
@@ -1484,7 +1483,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>17</v>
       </c>
@@ -1505,7 +1504,7 @@
         <v>1150.18</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>47</v>
       </c>
@@ -1526,7 +1525,7 @@
         <v>2300.36</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>86</v>
       </c>
@@ -1537,8 +1536,8 @@
         <v>111</v>
       </c>
       <c r="D34">
-        <f>D15*2+2*(SUM(D9:D10)+SUM(D12:D13)+SUM(D16:D17))</f>
-        <v>153.46</v>
+        <f>D15*2+2*(SUM(D2:D10)+SUM(D12:D13)+SUM(D16:D17))</f>
+        <v>536.94000000000005</v>
       </c>
       <c r="E34" t="s">
         <v>48</v>
@@ -1556,7 +1555,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
         <v>87</v>
       </c>
@@ -1567,7 +1566,7 @@
       <c r="C35" s="6"/>
       <c r="D35" s="6">
         <f t="shared" ref="D35:H35" si="1">D33-D34</f>
-        <v>525.00000000000011</v>
+        <v>141.5200000000001</v>
       </c>
       <c r="E35" s="6"/>
       <c r="F35" s="6">
@@ -1581,7 +1580,7 @@
       </c>
       <c r="I35" s="6"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>22</v>
       </c>
@@ -1590,7 +1589,7 @@
         <v>2127.9</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>23</v>
       </c>
@@ -1605,19 +1604,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.5546875" customWidth="1"/>
+    <col min="1" max="1" width="10.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>70</v>
       </c>

--- a/Savings.xlsx
+++ b/Savings.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="120">
   <si>
     <t>Funko</t>
   </si>
@@ -385,6 +385,12 @@
   </si>
   <si>
     <t>Thinkgeek</t>
+  </si>
+  <si>
+    <t>Rick Keyboard</t>
+  </si>
+  <si>
+    <t>Tawkwando</t>
   </si>
 </sst>
 </file>
@@ -741,7 +747,7 @@
   <dimension ref="A1:Z38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1271,10 +1277,10 @@
       <c r="C14" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="D14" s="1">
+      <c r="D14" s="4">
         <v>7.28</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="E14" s="4" t="s">
         <v>78</v>
       </c>
       <c r="F14">
@@ -1331,7 +1337,7 @@
         <v>4365.7800000000007</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>94</v>
       </c>
@@ -1348,7 +1354,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>108</v>
       </c>
@@ -1365,7 +1371,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D19" s="1">
         <v>6.94</v>
       </c>
@@ -1379,7 +1385,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D20" s="1">
         <v>8.86</v>
       </c>
@@ -1393,7 +1399,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D21" s="1">
         <v>16.760000000000002</v>
       </c>
@@ -1407,7 +1413,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D22" s="1">
         <v>8.48</v>
       </c>
@@ -1421,7 +1427,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D23" s="1">
         <v>10.99</v>
       </c>
@@ -1435,7 +1441,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="F24" s="4">
         <v>26.74</v>
       </c>
@@ -1443,7 +1449,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="F25" s="1">
         <v>17.95</v>
       </c>
@@ -1451,15 +1457,19 @@
         <v>102</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="F26" s="5">
         <v>18.989999999999998</v>
       </c>
       <c r="G26" s="5" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L26">
+        <f>(SUM(F28:F31)+D14+SUM(F2:F10))*2</f>
+        <v>340.22</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="F27" s="5">
         <v>25.9</v>
       </c>
@@ -1467,7 +1477,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="F28">
         <v>16.989999999999998</v>
       </c>
@@ -1475,7 +1485,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="F29">
         <v>10.53</v>
       </c>
@@ -1483,7 +1493,23 @@
         <v>114</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F30">
+        <v>10.99</v>
+      </c>
+      <c r="G30" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F31">
+        <v>15.99</v>
+      </c>
+      <c r="G31" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>17</v>
       </c>
@@ -1497,7 +1523,7 @@
       </c>
       <c r="F32">
         <f>SUM(F2:F31)</f>
-        <v>499.65</v>
+        <v>526.63</v>
       </c>
       <c r="H32">
         <f>SUM(H2:H24)</f>
@@ -1518,7 +1544,7 @@
       </c>
       <c r="F33">
         <f>F32*2</f>
-        <v>999.3</v>
+        <v>1053.26</v>
       </c>
       <c r="H33">
         <f t="shared" ref="H33" si="0">H32*2</f>
@@ -1571,7 +1597,7 @@
       <c r="E35" s="6"/>
       <c r="F35" s="6">
         <f t="shared" si="1"/>
-        <v>856.04</v>
+        <v>910</v>
       </c>
       <c r="G35" s="6"/>
       <c r="H35" s="6">
@@ -1586,7 +1612,7 @@
       </c>
       <c r="B36">
         <f>SUM(B32:M32)</f>
-        <v>2127.9</v>
+        <v>2154.88</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
@@ -1595,7 +1621,7 @@
       </c>
       <c r="B38">
         <f>B36*2</f>
-        <v>4255.8</v>
+        <v>4309.76</v>
       </c>
     </row>
   </sheetData>

--- a/Savings.xlsx
+++ b/Savings.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="118">
   <si>
     <t>Funko</t>
   </si>
@@ -273,9 +273,6 @@
     <t>Armored</t>
   </si>
   <si>
-    <t>Chess</t>
-  </si>
-  <si>
     <t xml:space="preserve">Yellow </t>
   </si>
   <si>
@@ -352,9 +349,6 @@
   </si>
   <si>
     <t>Barrel</t>
-  </si>
-  <si>
-    <t>Chesire 2</t>
   </si>
   <si>
     <t>On Ally</t>
@@ -747,7 +741,7 @@
   <dimension ref="A1:Z38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+      <selection activeCell="M26" sqref="M26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -867,7 +861,7 @@
         <v>200</v>
       </c>
       <c r="I3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="K3">
         <f>(L2*P2)</f>
@@ -959,7 +953,7 @@
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B6" s="5">
         <v>8.89</v>
@@ -983,7 +977,7 @@
         <v>50</v>
       </c>
       <c r="I6" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="N6" s="2" t="s">
         <v>74</v>
@@ -1001,7 +995,7 @@
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B7" s="5">
         <v>10.199999999999999</v>
@@ -1025,7 +1019,7 @@
         <v>25</v>
       </c>
       <c r="I7" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="S7" t="s">
         <v>61</v>
@@ -1036,7 +1030,7 @@
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B8" s="5">
         <v>5.85</v>
@@ -1060,7 +1054,7 @@
         <v>40</v>
       </c>
       <c r="I8" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="S8" t="s">
         <v>63</v>
@@ -1072,7 +1066,7 @@
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B9" s="5">
         <v>6</v>
@@ -1092,6 +1086,12 @@
       <c r="G9" t="s">
         <v>8</v>
       </c>
+      <c r="H9">
+        <v>49.96</v>
+      </c>
+      <c r="I9" t="s">
+        <v>95</v>
+      </c>
       <c r="T9" t="s">
         <v>62</v>
       </c>
@@ -1108,12 +1108,12 @@
         <v>66</v>
       </c>
       <c r="Y9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B10" s="5">
         <v>17.54</v>
@@ -1239,7 +1239,7 @@
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B13" s="5">
         <v>8.99</v>
@@ -1269,7 +1269,7 @@
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B14" s="5">
         <v>9.99</v>
@@ -1292,13 +1292,13 @@
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B15" s="5">
         <v>9.99</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D15" s="5">
         <v>32.090000000000003</v>
@@ -1306,22 +1306,16 @@
       <c r="E15" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="F15">
-        <v>49.96</v>
-      </c>
-      <c r="G15" t="s">
-        <v>96</v>
-      </c>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D16" s="5">
         <v>6.99</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F16">
         <v>27.94</v>
@@ -1337,15 +1331,15 @@
         <v>4365.7800000000007</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D17" s="5">
         <v>4.97</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F17">
         <v>12.58</v>
@@ -1354,15 +1348,15 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D18" s="1">
         <v>6.48</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F18">
         <v>12.99</v>
@@ -1371,12 +1365,12 @@
         <v>34</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D19" s="1">
         <v>6.94</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F19">
         <v>30</v>
@@ -1385,12 +1379,12 @@
         <v>43</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D20" s="1">
         <v>8.86</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F20" s="1">
         <v>30</v>
@@ -1399,23 +1393,19 @@
         <v>50</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D21" s="1">
-        <v>16.760000000000002</v>
+        <v>8.48</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="F21" s="1">
-        <v>11.29</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+        <v>102</v>
+      </c>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D22" s="1">
-        <v>8.48</v>
+        <v>10.99</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>103</v>
@@ -1424,92 +1414,92 @@
         <v>24.4</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D23" s="1">
-        <v>10.99</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>104</v>
-      </c>
+        <v>87</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
       <c r="F23" s="1">
         <v>11.75</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="F24" s="4">
         <v>26.74</v>
       </c>
       <c r="G24" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="F25" s="1">
         <v>17.95</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="F26" s="5">
         <v>18.989999999999998</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="L26">
-        <f>(SUM(F28:F31)+D14+SUM(F2:F10))*2</f>
-        <v>340.22</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+        <f>(SUM(F28:F31)+D14+SUM(F2:F8))*2</f>
+        <v>307.08</v>
+      </c>
+      <c r="M26">
+        <f>(SUM(D18:D22)+ D11)*2</f>
+        <v>93.44</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="F27" s="5">
         <v>25.9</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="F28">
         <v>16.989999999999998</v>
       </c>
       <c r="G28" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="F29">
         <v>10.53</v>
       </c>
       <c r="G29" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="F30">
         <v>10.99</v>
       </c>
       <c r="G30" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="F31">
         <v>15.99</v>
       </c>
       <c r="G31" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>17</v>
       </c>
@@ -1519,15 +1509,15 @@
       </c>
       <c r="D32">
         <f>SUM(D2:D27)</f>
-        <v>339.23000000000008</v>
+        <v>322.47000000000008</v>
       </c>
       <c r="F32">
         <f>SUM(F2:F31)</f>
-        <v>526.63</v>
+        <v>465.37999999999994</v>
       </c>
       <c r="H32">
         <f>SUM(H2:H24)</f>
-        <v>1150.18</v>
+        <v>1200.1400000000001</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
@@ -1540,26 +1530,26 @@
       </c>
       <c r="D33">
         <f>D32*2</f>
-        <v>678.46000000000015</v>
+        <v>644.94000000000017</v>
       </c>
       <c r="F33">
         <f>F32*2</f>
-        <v>1053.26</v>
+        <v>930.75999999999988</v>
       </c>
       <c r="H33">
         <f t="shared" ref="H33" si="0">H32*2</f>
-        <v>2300.36</v>
+        <v>2400.2800000000002</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B34">
         <v>277.68</v>
       </c>
       <c r="C34" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D34">
         <f>D15*2+2*(SUM(D2:D10)+SUM(D12:D13)+SUM(D16:D17))</f>
@@ -1583,7 +1573,7 @@
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B35" s="6">
         <f>B33-B34</f>
@@ -1592,17 +1582,17 @@
       <c r="C35" s="6"/>
       <c r="D35" s="6">
         <f t="shared" ref="D35:H35" si="1">D33-D34</f>
-        <v>141.5200000000001</v>
+        <v>108.00000000000011</v>
       </c>
       <c r="E35" s="6"/>
       <c r="F35" s="6">
         <f t="shared" si="1"/>
-        <v>910</v>
+        <v>787.49999999999989</v>
       </c>
       <c r="G35" s="6"/>
       <c r="H35" s="6">
         <f t="shared" si="1"/>
-        <v>2300.36</v>
+        <v>2400.2800000000002</v>
       </c>
       <c r="I35" s="6"/>
     </row>
@@ -1612,7 +1602,7 @@
       </c>
       <c r="B36">
         <f>SUM(B32:M32)</f>
-        <v>2154.88</v>
+        <v>2126.83</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
@@ -1621,7 +1611,7 @@
       </c>
       <c r="B38">
         <f>B36*2</f>
-        <v>4309.76</v>
+        <v>4253.66</v>
       </c>
     </row>
   </sheetData>

--- a/Savings.xlsx
+++ b/Savings.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="123">
   <si>
     <t>Funko</t>
   </si>
@@ -294,9 +294,6 @@
     <t>Still Left</t>
   </si>
   <si>
-    <t>Fractal G</t>
-  </si>
-  <si>
     <t>Fractal Intro</t>
   </si>
   <si>
@@ -385,6 +382,24 @@
   </si>
   <si>
     <t>Tawkwando</t>
+  </si>
+  <si>
+    <t>Maxwell Shirt</t>
+  </si>
+  <si>
+    <t>Clothing</t>
+  </si>
+  <si>
+    <t>Investing Books</t>
+  </si>
+  <si>
+    <t>Taxes</t>
+  </si>
+  <si>
+    <t>Vampire</t>
+  </si>
+  <si>
+    <t>Schordinger</t>
   </si>
 </sst>
 </file>
@@ -738,21 +753,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z38"/>
+  <dimension ref="A1:AD45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M26" sqref="M26"/>
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13" customWidth="1"/>
     <col min="7" max="7" width="9.7109375" customWidth="1"/>
-    <col min="14" max="14" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.42578125" customWidth="1"/>
+    <col min="18" max="18" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>10</v>
       </c>
@@ -765,29 +780,35 @@
       <c r="H1" t="s">
         <v>18</v>
       </c>
-      <c r="K1" t="s">
+      <c r="J1" t="s">
+        <v>118</v>
+      </c>
+      <c r="L1" t="s">
+        <v>119</v>
+      </c>
+      <c r="O1" t="s">
         <v>54</v>
       </c>
-      <c r="L1" t="s">
+      <c r="P1" t="s">
         <v>77</v>
       </c>
-      <c r="O1" t="s">
+      <c r="S1" t="s">
         <v>55</v>
       </c>
-      <c r="P1" t="s">
+      <c r="T1" t="s">
         <v>56</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="U1" t="s">
         <v>57</v>
       </c>
-      <c r="T1" t="s">
+      <c r="X1" t="s">
         <v>58</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AD1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B2" s="5">
         <v>6.94</v>
       </c>
@@ -812,33 +833,45 @@
       <c r="I2" t="s">
         <v>19</v>
       </c>
-      <c r="K2">
+      <c r="J2">
+        <v>18.989999999999998</v>
+      </c>
+      <c r="K2" t="s">
+        <v>117</v>
+      </c>
+      <c r="L2">
+        <v>18.62</v>
+      </c>
+      <c r="M2" t="s">
+        <v>120</v>
+      </c>
+      <c r="O2">
         <v>9151</v>
       </c>
-      <c r="L2">
+      <c r="P2">
         <v>36</v>
       </c>
-      <c r="O2">
+      <c r="S2">
         <v>13484</v>
       </c>
-      <c r="P2">
+      <c r="T2">
         <v>269</v>
       </c>
-      <c r="Q2">
+      <c r="U2">
         <v>60</v>
       </c>
-      <c r="S2" t="s">
+      <c r="W2" t="s">
         <v>59</v>
       </c>
-      <c r="T2">
+      <c r="X2">
         <v>1411.13</v>
       </c>
-      <c r="Z2">
-        <f>SUM(B34+D34+F34+H34)</f>
+      <c r="AD2">
+        <f>SUM(B41+D41+F41+H41)</f>
         <v>957.88000000000011</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B3" s="5">
         <v>9.65</v>
       </c>
@@ -861,23 +894,29 @@
         <v>200</v>
       </c>
       <c r="I3" t="s">
-        <v>96</v>
-      </c>
-      <c r="K3">
-        <f>(L2*P2)</f>
+        <v>95</v>
+      </c>
+      <c r="J3">
+        <v>18.989999999999998</v>
+      </c>
+      <c r="K3" t="s">
+        <v>122</v>
+      </c>
+      <c r="O3">
+        <f>(P2*T2)</f>
         <v>9684</v>
       </c>
-      <c r="O3" t="s">
+      <c r="S3" t="s">
         <v>76</v>
       </c>
-      <c r="S3" t="s">
+      <c r="W3" t="s">
         <v>59</v>
       </c>
-      <c r="T3">
+      <c r="X3">
         <v>1411.13</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B4" s="5">
         <v>4.99</v>
       </c>
@@ -902,17 +941,17 @@
       <c r="I4" t="s">
         <v>20</v>
       </c>
-      <c r="O4" s="3">
+      <c r="S4" s="3">
         <v>7.2999999999999995E-2</v>
       </c>
-      <c r="S4" t="s">
+      <c r="W4" t="s">
         <v>60</v>
       </c>
-      <c r="T4">
+      <c r="X4">
         <v>1411.13</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B5" s="5">
         <v>6.82</v>
       </c>
@@ -937,21 +976,21 @@
       <c r="I5" t="s">
         <v>21</v>
       </c>
-      <c r="N5" t="s">
+      <c r="R5" t="s">
         <v>75</v>
       </c>
-      <c r="O5" s="2">
-        <f>PMT(O4/12,Q2,O2)</f>
+      <c r="S5" s="2">
+        <f>PMT(S4/12,U2,S2)</f>
         <v>-268.91201693575812</v>
       </c>
-      <c r="S5" t="s">
+      <c r="W5" t="s">
         <v>60</v>
       </c>
-      <c r="T5">
+      <c r="X5">
         <v>1411.13</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>80</v>
       </c>
@@ -977,23 +1016,23 @@
         <v>50</v>
       </c>
       <c r="I6" t="s">
-        <v>113</v>
-      </c>
-      <c r="N6" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="R6" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="O6" s="2">
-        <f>(-O5*Q2)-O2</f>
+      <c r="S6" s="2">
+        <f>(-S5*U2)-S2</f>
         <v>2650.7210161454877</v>
       </c>
-      <c r="S6" t="s">
+      <c r="W6" t="s">
         <v>61</v>
       </c>
-      <c r="T6">
+      <c r="X6">
         <v>1411.13</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>81</v>
       </c>
@@ -1019,16 +1058,16 @@
         <v>25</v>
       </c>
       <c r="I7" t="s">
-        <v>114</v>
-      </c>
-      <c r="S7" t="s">
+        <v>113</v>
+      </c>
+      <c r="W7" t="s">
         <v>61</v>
       </c>
-      <c r="T7">
+      <c r="X7">
         <v>1411.13</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>82</v>
       </c>
@@ -1054,17 +1093,17 @@
         <v>40</v>
       </c>
       <c r="I8" t="s">
-        <v>115</v>
-      </c>
-      <c r="S8" t="s">
+        <v>114</v>
+      </c>
+      <c r="W8" t="s">
         <v>63</v>
       </c>
-      <c r="T8">
-        <f>SUM(T2:T7)</f>
+      <c r="X8">
+        <f>SUM(X2:X7)</f>
         <v>8466.7800000000007</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>83</v>
       </c>
@@ -1090,28 +1129,28 @@
         <v>49.96</v>
       </c>
       <c r="I9" t="s">
-        <v>95</v>
-      </c>
-      <c r="T9" t="s">
+        <v>94</v>
+      </c>
+      <c r="X9" t="s">
         <v>62</v>
       </c>
-      <c r="U9" t="s">
+      <c r="Y9" t="s">
         <v>67</v>
       </c>
-      <c r="V9" t="s">
+      <c r="Z9" t="s">
         <v>68</v>
       </c>
-      <c r="W9" t="s">
+      <c r="AA9" t="s">
         <v>64</v>
       </c>
-      <c r="X9" t="s">
+      <c r="AB9" t="s">
         <v>66</v>
       </c>
-      <c r="Y9" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AC9" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>84</v>
       </c>
@@ -1133,39 +1172,39 @@
       <c r="G10" t="s">
         <v>9</v>
       </c>
-      <c r="S10" t="s">
+      <c r="W10" t="s">
         <v>59</v>
       </c>
-      <c r="T10">
+      <c r="X10">
         <v>700</v>
       </c>
-      <c r="U10">
+      <c r="Y10">
         <v>70</v>
       </c>
-      <c r="V10">
+      <c r="Z10">
         <v>70</v>
       </c>
-      <c r="W10">
+      <c r="AA10">
         <v>300</v>
       </c>
-      <c r="X10">
+      <c r="AB10">
         <v>100</v>
       </c>
-      <c r="Y10">
+      <c r="AC10">
         <v>127</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B11" s="5">
         <v>10.99</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D11" s="1">
-        <v>4.97</v>
-      </c>
-      <c r="E11" s="1" t="s">
+      <c r="D11" s="4">
+        <v>5.55</v>
+      </c>
+      <c r="E11" s="4" t="s">
         <v>52</v>
       </c>
       <c r="F11">
@@ -1174,29 +1213,29 @@
       <c r="G11" t="s">
         <v>11</v>
       </c>
-      <c r="S11" t="s">
+      <c r="W11" t="s">
         <v>60</v>
       </c>
-      <c r="T11">
+      <c r="X11">
         <v>700</v>
       </c>
-      <c r="U11">
+      <c r="Y11">
         <v>70</v>
       </c>
-      <c r="V11">
+      <c r="Z11">
         <v>70</v>
       </c>
-      <c r="W11">
+      <c r="AA11">
         <v>300</v>
       </c>
-      <c r="X11">
+      <c r="AB11">
         <v>100</v>
       </c>
-      <c r="Y11">
+      <c r="AC11">
         <v>127</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B12" s="5">
         <v>22</v>
       </c>
@@ -1215,31 +1254,31 @@
       <c r="G12" t="s">
         <v>12</v>
       </c>
-      <c r="S12" t="s">
+      <c r="W12" t="s">
         <v>61</v>
       </c>
-      <c r="T12">
+      <c r="X12">
         <v>700</v>
       </c>
-      <c r="U12">
+      <c r="Y12">
         <v>70</v>
       </c>
-      <c r="V12">
+      <c r="Z12">
         <v>70</v>
       </c>
-      <c r="W12">
+      <c r="AA12">
         <v>300</v>
       </c>
-      <c r="X12">
+      <c r="AB12">
         <v>100</v>
       </c>
-      <c r="Y12">
+      <c r="AC12">
         <v>127</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B13" s="5">
         <v>8.99</v>
@@ -1259,17 +1298,17 @@
       <c r="G13" t="s">
         <v>13</v>
       </c>
-      <c r="S13" t="s">
+      <c r="W13" t="s">
         <v>63</v>
       </c>
-      <c r="T13">
-        <f>SUM(T10:Y12)</f>
+      <c r="X13">
+        <f>SUM(X10:AC12)</f>
         <v>4101</v>
       </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B14" s="5">
         <v>9.99</v>
@@ -1290,15 +1329,15 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B15" s="5">
         <v>9.99</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D15" s="5">
         <v>32.090000000000003</v>
@@ -1306,16 +1345,22 @@
       <c r="E15" s="5" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="F15">
+        <v>15.99</v>
+      </c>
+      <c r="G15" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D16" s="5">
         <v>6.99</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F16">
         <v>27.94</v>
@@ -1323,23 +1368,23 @@
       <c r="G16" t="s">
         <v>15</v>
       </c>
-      <c r="S16" t="s">
+      <c r="W16" t="s">
         <v>65</v>
       </c>
-      <c r="T16">
-        <f>T8-T13</f>
+      <c r="X16">
+        <f>X8-X13</f>
         <v>4365.7800000000007</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D17" s="5">
         <v>4.97</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F17">
         <v>12.58</v>
@@ -1348,15 +1393,15 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="D18" s="1">
+        <v>105</v>
+      </c>
+      <c r="D18" s="4">
         <v>6.48</v>
       </c>
-      <c r="E18" s="1" t="s">
-        <v>98</v>
+      <c r="E18" s="4" t="s">
+        <v>97</v>
       </c>
       <c r="F18">
         <v>12.99</v>
@@ -1365,12 +1410,12 @@
         <v>34</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="D19" s="1">
         <v>6.94</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F19">
         <v>30</v>
@@ -1379,12 +1424,12 @@
         <v>43</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="D20" s="1">
         <v>8.86</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F20" s="1">
         <v>30</v>
@@ -1393,225 +1438,217 @@
         <v>50</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="D21" s="1">
-        <v>8.48</v>
-      </c>
-      <c r="E21" s="1" t="s">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="D21" s="4">
+        <v>8.69</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="F21">
+        <v>10.99</v>
+      </c>
+      <c r="G21" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="D22" s="4">
+        <v>9.99</v>
+      </c>
+      <c r="E22" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="D22" s="1">
-        <v>10.99</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="F22" s="1">
-        <v>24.4</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
+      <c r="F22">
+        <v>10.53</v>
+      </c>
+      <c r="G22" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="D23" s="4">
+        <v>9.9499999999999993</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>121</v>
+      </c>
       <c r="F23" s="1">
         <v>11.75</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="F24" s="4">
         <v>26.74</v>
       </c>
       <c r="G24" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="F25" s="1">
         <v>17.95</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="F26" s="5">
         <v>18.989999999999998</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="L26">
-        <f>(SUM(F28:F31)+D14+SUM(F2:F8))*2</f>
-        <v>307.08</v>
-      </c>
-      <c r="M26">
+        <v>106</v>
+      </c>
+      <c r="P26">
+        <f>(SUM(F28:F38)+D14+SUM(F2:F8))*2</f>
+        <v>253.11999999999998</v>
+      </c>
+      <c r="Q26">
         <f>(SUM(D18:D22)+ D11)*2</f>
-        <v>93.44</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+        <v>93.02</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="F27" s="5">
         <v>25.9</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="F28">
         <v>16.989999999999998</v>
       </c>
       <c r="G28" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="F29">
         <v>10.53</v>
       </c>
       <c r="G29" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="F30">
-        <v>10.99</v>
-      </c>
-      <c r="G30" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="F31">
-        <v>15.99</v>
-      </c>
-      <c r="G31" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
         <v>17</v>
       </c>
-      <c r="B32">
+      <c r="B39">
         <f>SUM(B2:B15)</f>
         <v>138.84</v>
       </c>
-      <c r="D32">
+      <c r="D39">
         <f>SUM(D2:D27)</f>
-        <v>322.47000000000008</v>
-      </c>
-      <c r="F32">
-        <f>SUM(F2:F31)</f>
-        <v>465.37999999999994</v>
-      </c>
-      <c r="H32">
+        <v>332.21000000000009</v>
+      </c>
+      <c r="F39">
+        <f>SUM(F2:F38)</f>
+        <v>451.50999999999993</v>
+      </c>
+      <c r="H39">
         <f>SUM(H2:H24)</f>
         <v>1200.1400000000001</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
         <v>47</v>
       </c>
-      <c r="B33">
-        <f>B32*2</f>
+      <c r="B40">
+        <f>B39*2</f>
         <v>277.68</v>
       </c>
-      <c r="D33">
-        <f>D32*2</f>
-        <v>644.94000000000017</v>
-      </c>
-      <c r="F33">
-        <f>F32*2</f>
-        <v>930.75999999999988</v>
-      </c>
-      <c r="H33">
-        <f t="shared" ref="H33" si="0">H32*2</f>
+      <c r="D40">
+        <f>D39*2</f>
+        <v>664.42000000000019</v>
+      </c>
+      <c r="F40">
+        <f>F39*2</f>
+        <v>903.01999999999987</v>
+      </c>
+      <c r="H40">
+        <f t="shared" ref="H40" si="0">H39*2</f>
         <v>2400.2800000000002</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
         <v>85</v>
       </c>
-      <c r="B34">
+      <c r="B41">
         <v>277.68</v>
       </c>
-      <c r="C34" t="s">
-        <v>109</v>
-      </c>
-      <c r="D34">
+      <c r="C41" t="s">
+        <v>108</v>
+      </c>
+      <c r="D41">
         <f>D15*2+2*(SUM(D2:D10)+SUM(D12:D13)+SUM(D16:D17))</f>
         <v>536.94000000000005</v>
       </c>
-      <c r="E34" t="s">
+      <c r="E41" t="s">
         <v>48</v>
       </c>
-      <c r="F34">
+      <c r="F41">
         <v>143.26</v>
       </c>
-      <c r="G34" t="s">
+      <c r="G41" t="s">
         <v>48</v>
       </c>
-      <c r="H34">
+      <c r="H41">
         <v>0</v>
       </c>
-      <c r="I34" t="s">
+      <c r="I41" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="6" t="s">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="B35" s="6">
-        <f>B33-B34</f>
+      <c r="B42" s="6">
+        <f>B40-B41</f>
         <v>0</v>
       </c>
-      <c r="C35" s="6"/>
-      <c r="D35" s="6">
-        <f t="shared" ref="D35:H35" si="1">D33-D34</f>
-        <v>108.00000000000011</v>
-      </c>
-      <c r="E35" s="6"/>
-      <c r="F35" s="6">
+      <c r="C42" s="6"/>
+      <c r="D42" s="6">
+        <f t="shared" ref="D42:H42" si="1">D40-D41</f>
+        <v>127.48000000000013</v>
+      </c>
+      <c r="E42" s="6"/>
+      <c r="F42" s="6">
         <f t="shared" si="1"/>
-        <v>787.49999999999989</v>
-      </c>
-      <c r="G35" s="6"/>
-      <c r="H35" s="6">
+        <v>759.75999999999988</v>
+      </c>
+      <c r="G42" s="6"/>
+      <c r="H42" s="6">
         <f t="shared" si="1"/>
         <v>2400.2800000000002</v>
       </c>
-      <c r="I35" s="6"/>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+      <c r="I42" s="6"/>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
         <v>22</v>
       </c>
-      <c r="B36">
-        <f>SUM(B32:M32)</f>
-        <v>2126.83</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
+      <c r="B43">
+        <f>SUM(B39:Q39)</f>
+        <v>2122.6999999999998</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
         <v>23</v>
       </c>
-      <c r="B38">
-        <f>B36*2</f>
-        <v>4253.66</v>
+      <c r="B45">
+        <f>B43*2</f>
+        <v>4245.3999999999996</v>
       </c>
     </row>
   </sheetData>

--- a/Savings.xlsx
+++ b/Savings.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="125">
   <si>
     <t>Funko</t>
   </si>
@@ -400,6 +400,12 @@
   </si>
   <si>
     <t>Schordinger</t>
+  </si>
+  <si>
+    <t>Space Invader</t>
+  </si>
+  <si>
+    <t>Cutler</t>
   </si>
 </sst>
 </file>
@@ -756,7 +762,7 @@
   <dimension ref="A1:AD45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1172,6 +1178,12 @@
       <c r="G10" t="s">
         <v>9</v>
       </c>
+      <c r="H10">
+        <v>68</v>
+      </c>
+      <c r="I10" t="s">
+        <v>124</v>
+      </c>
       <c r="W10" t="s">
         <v>59</v>
       </c>
@@ -1481,6 +1493,12 @@
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="D24" s="4">
+        <v>22</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>123</v>
+      </c>
       <c r="F24" s="4">
         <v>26.74</v>
       </c>
@@ -1546,7 +1564,7 @@
       </c>
       <c r="D39">
         <f>SUM(D2:D27)</f>
-        <v>332.21000000000009</v>
+        <v>354.21000000000009</v>
       </c>
       <c r="F39">
         <f>SUM(F2:F38)</f>
@@ -1554,7 +1572,7 @@
       </c>
       <c r="H39">
         <f>SUM(H2:H24)</f>
-        <v>1200.1400000000001</v>
+        <v>1268.1400000000001</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
@@ -1567,7 +1585,7 @@
       </c>
       <c r="D40">
         <f>D39*2</f>
-        <v>664.42000000000019</v>
+        <v>708.42000000000019</v>
       </c>
       <c r="F40">
         <f>F39*2</f>
@@ -1575,7 +1593,7 @@
       </c>
       <c r="H40">
         <f t="shared" ref="H40" si="0">H39*2</f>
-        <v>2400.2800000000002</v>
+        <v>2536.2800000000002</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
@@ -1619,7 +1637,7 @@
       <c r="C42" s="6"/>
       <c r="D42" s="6">
         <f t="shared" ref="D42:H42" si="1">D40-D41</f>
-        <v>127.48000000000013</v>
+        <v>171.48000000000013</v>
       </c>
       <c r="E42" s="6"/>
       <c r="F42" s="6">
@@ -1629,7 +1647,7 @@
       <c r="G42" s="6"/>
       <c r="H42" s="6">
         <f t="shared" si="1"/>
-        <v>2400.2800000000002</v>
+        <v>2536.2800000000002</v>
       </c>
       <c r="I42" s="6"/>
     </row>
@@ -1639,7 +1657,7 @@
       </c>
       <c r="B43">
         <f>SUM(B39:Q39)</f>
-        <v>2122.6999999999998</v>
+        <v>2212.6999999999998</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
@@ -1648,7 +1666,7 @@
       </c>
       <c r="B45">
         <f>B43*2</f>
-        <v>4245.3999999999996</v>
+        <v>4425.3999999999996</v>
       </c>
     </row>
   </sheetData>

--- a/Savings.xlsx
+++ b/Savings.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="134">
   <si>
     <t>Funko</t>
   </si>
@@ -195,18 +195,6 @@
     <t>Shock</t>
   </si>
   <si>
-    <t>Car Expenses</t>
-  </si>
-  <si>
-    <t>Total Price</t>
-  </si>
-  <si>
-    <t>PMT</t>
-  </si>
-  <si>
-    <t>N</t>
-  </si>
-  <si>
     <t>Bi-Weekly</t>
   </si>
   <si>
@@ -255,18 +243,6 @@
     <t>Price</t>
   </si>
   <si>
-    <t>Interest Paid</t>
-  </si>
-  <si>
-    <t>PMT Calc</t>
-  </si>
-  <si>
-    <t>Interest</t>
-  </si>
-  <si>
-    <t>N Left</t>
-  </si>
-  <si>
     <t>Doflamingo</t>
   </si>
   <si>
@@ -333,9 +309,6 @@
     <t>Oogie Worm</t>
   </si>
   <si>
-    <t>Sabor Cosmico</t>
-  </si>
-  <si>
     <t>Harlequin</t>
   </si>
   <si>
@@ -390,9 +363,6 @@
     <t>Clothing</t>
   </si>
   <si>
-    <t>Investing Books</t>
-  </si>
-  <si>
     <t>Taxes</t>
   </si>
   <si>
@@ -406,23 +376,70 @@
   </si>
   <si>
     <t>Cutler</t>
+  </si>
+  <si>
+    <t>Books</t>
+  </si>
+  <si>
+    <t>Pokemon</t>
+  </si>
+  <si>
+    <t>Math Relativity</t>
+  </si>
+  <si>
+    <t>Memory</t>
+  </si>
+  <si>
+    <t>Chultulu</t>
+  </si>
+  <si>
+    <t>Tripod</t>
+  </si>
+  <si>
+    <t>Kook</t>
+  </si>
+  <si>
+    <t>Witch Doc</t>
+  </si>
+  <si>
+    <t>Phatom</t>
+  </si>
+  <si>
+    <t>Scooby</t>
+  </si>
+  <si>
+    <t>Relativity Guide</t>
+  </si>
+  <si>
+    <t>Bike Rack</t>
+  </si>
+  <si>
+    <t>Switch Controllers</t>
+  </si>
+  <si>
+    <t>Buy it Rent it</t>
+  </si>
+  <si>
+    <t>Sd Card</t>
+  </si>
+  <si>
+    <t>Handgrip</t>
+  </si>
+  <si>
+    <t>You already have it, and have not saved anything</t>
+  </si>
+  <si>
+    <t>Hot Topic</t>
+  </si>
+  <si>
+    <t>Plantasia</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
-    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
-  </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -431,7 +448,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -456,6 +473,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF00FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -466,25 +489,30 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF00FF"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -759,21 +787,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AD45"/>
+  <dimension ref="A1:X45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13" customWidth="1"/>
     <col min="7" max="7" width="9.7109375" customWidth="1"/>
-    <col min="18" max="18" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>10</v>
       </c>
@@ -787,44 +813,29 @@
         <v>18</v>
       </c>
       <c r="J1" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="L1" t="s">
-        <v>119</v>
-      </c>
-      <c r="O1" t="s">
+        <v>115</v>
+      </c>
+      <c r="R1" t="s">
         <v>54</v>
       </c>
-      <c r="P1" t="s">
-        <v>77</v>
-      </c>
-      <c r="S1" t="s">
-        <v>55</v>
-      </c>
-      <c r="T1" t="s">
-        <v>56</v>
-      </c>
-      <c r="U1" t="s">
-        <v>57</v>
-      </c>
-      <c r="X1" t="s">
-        <v>58</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="B2" s="5">
+      <c r="X1" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B2" s="3">
         <v>6.94</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D2" s="5">
+      <c r="D2" s="3">
         <v>35.94</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="3" t="s">
         <v>29</v>
       </c>
       <c r="F2">
@@ -843,51 +854,36 @@
         <v>18.989999999999998</v>
       </c>
       <c r="K2" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="L2">
         <v>18.62</v>
       </c>
       <c r="M2" t="s">
-        <v>120</v>
-      </c>
-      <c r="O2">
-        <v>9151</v>
-      </c>
-      <c r="P2">
-        <v>36</v>
-      </c>
-      <c r="S2">
-        <v>13484</v>
-      </c>
-      <c r="T2">
-        <v>269</v>
-      </c>
-      <c r="U2">
-        <v>60</v>
-      </c>
-      <c r="W2" t="s">
-        <v>59</v>
-      </c>
-      <c r="X2">
+        <v>110</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>55</v>
+      </c>
+      <c r="R2">
         <v>1411.13</v>
       </c>
-      <c r="AD2">
+      <c r="X2" s="6">
         <f>SUM(B41+D41+F41+H41)</f>
         <v>957.88000000000011</v>
       </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="B3" s="5">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B3" s="3">
         <v>9.65</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="3">
         <v>32.090000000000003</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="3" t="s">
         <v>30</v>
       </c>
       <c r="F3">
@@ -900,39 +896,38 @@
         <v>200</v>
       </c>
       <c r="I3" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="J3">
         <v>18.989999999999998</v>
       </c>
       <c r="K3" t="s">
-        <v>122</v>
-      </c>
-      <c r="O3">
-        <f>(P2*T2)</f>
-        <v>9684</v>
-      </c>
-      <c r="S3" t="s">
-        <v>76</v>
-      </c>
-      <c r="W3" t="s">
-        <v>59</v>
-      </c>
-      <c r="X3">
+        <v>112</v>
+      </c>
+      <c r="L3">
+        <v>13.18</v>
+      </c>
+      <c r="M3" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>55</v>
+      </c>
+      <c r="R3">
         <v>1411.13</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="B4" s="5">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B4" s="3">
         <v>4.99</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="3">
         <v>18.73</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="3" t="s">
         <v>31</v>
       </c>
       <c r="F4">
@@ -947,27 +942,30 @@
       <c r="I4" t="s">
         <v>20</v>
       </c>
-      <c r="S4" s="3">
-        <v>7.2999999999999995E-2</v>
-      </c>
-      <c r="W4" t="s">
-        <v>60</v>
-      </c>
-      <c r="X4">
+      <c r="L4">
+        <v>12.5</v>
+      </c>
+      <c r="M4" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>56</v>
+      </c>
+      <c r="R4">
         <v>1411.13</v>
       </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="B5" s="5">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B5" s="3">
         <v>6.82</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="3">
         <v>38.25</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="3" t="s">
         <v>28</v>
       </c>
       <c r="F5">
@@ -982,34 +980,33 @@
       <c r="I5" t="s">
         <v>21</v>
       </c>
-      <c r="R5" t="s">
-        <v>75</v>
-      </c>
-      <c r="S5" s="2">
-        <f>PMT(S4/12,U2,S2)</f>
-        <v>-268.91201693575812</v>
-      </c>
-      <c r="W5" t="s">
-        <v>60</v>
-      </c>
-      <c r="X5">
+      <c r="L5">
+        <v>38.729999999999997</v>
+      </c>
+      <c r="M5" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>56</v>
+      </c>
+      <c r="R5">
         <v>1411.13</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B6" s="5">
+        <v>72</v>
+      </c>
+      <c r="B6" s="3">
         <v>8.89</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="3">
         <v>23.74</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="3" t="s">
         <v>27</v>
       </c>
       <c r="F6">
@@ -1022,36 +1019,35 @@
         <v>50</v>
       </c>
       <c r="I6" t="s">
-        <v>112</v>
-      </c>
-      <c r="R6" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="S6" s="2">
-        <f>(-S5*U2)-S2</f>
-        <v>2650.7210161454877</v>
-      </c>
-      <c r="W6" t="s">
-        <v>61</v>
-      </c>
-      <c r="X6">
+        <v>103</v>
+      </c>
+      <c r="L6">
+        <v>18.260000000000002</v>
+      </c>
+      <c r="M6" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>57</v>
+      </c>
+      <c r="R6">
         <v>1411.13</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="B7" s="5">
+        <v>73</v>
+      </c>
+      <c r="B7" s="3">
         <v>10.199999999999999</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="3">
         <v>22.99</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E7" s="3" t="s">
         <v>32</v>
       </c>
       <c r="F7">
@@ -1064,29 +1060,35 @@
         <v>25</v>
       </c>
       <c r="I7" t="s">
-        <v>113</v>
-      </c>
-      <c r="W7" t="s">
-        <v>61</v>
-      </c>
-      <c r="X7">
+        <v>104</v>
+      </c>
+      <c r="L7">
+        <v>9.8800000000000008</v>
+      </c>
+      <c r="M7" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>57</v>
+      </c>
+      <c r="R7">
         <v>1411.13</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="B8" s="5">
+        <v>74</v>
+      </c>
+      <c r="B8" s="3">
         <v>5.85</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8" s="3">
         <v>20</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="E8" s="3" t="s">
         <v>26</v>
       </c>
       <c r="F8">
@@ -1099,30 +1101,30 @@
         <v>40</v>
       </c>
       <c r="I8" t="s">
-        <v>114</v>
-      </c>
-      <c r="W8" t="s">
-        <v>63</v>
-      </c>
-      <c r="X8">
-        <f>SUM(X2:X7)</f>
+        <v>105</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>59</v>
+      </c>
+      <c r="R8">
+        <f>SUM(R2:R7)</f>
         <v>8466.7800000000007</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="B9" s="5">
+        <v>75</v>
+      </c>
+      <c r="B9" s="3">
         <v>6</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D9" s="3">
         <v>9.23</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="E9" s="3" t="s">
         <v>49</v>
       </c>
       <c r="F9">
@@ -1135,41 +1137,41 @@
         <v>49.96</v>
       </c>
       <c r="I9" t="s">
-        <v>94</v>
-      </c>
-      <c r="X9" t="s">
+        <v>86</v>
+      </c>
+      <c r="R9" t="s">
+        <v>58</v>
+      </c>
+      <c r="S9" t="s">
+        <v>63</v>
+      </c>
+      <c r="T9" t="s">
+        <v>64</v>
+      </c>
+      <c r="U9" t="s">
+        <v>60</v>
+      </c>
+      <c r="V9" t="s">
         <v>62</v>
       </c>
-      <c r="Y9" t="s">
-        <v>67</v>
-      </c>
-      <c r="Z9" t="s">
-        <v>68</v>
-      </c>
-      <c r="AA9" t="s">
-        <v>64</v>
-      </c>
-      <c r="AB9" t="s">
-        <v>66</v>
-      </c>
-      <c r="AC9" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="W9" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="B10" s="5">
+        <v>76</v>
+      </c>
+      <c r="B10" s="3">
         <v>17.54</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D10" s="3">
         <v>13.99</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="E10" s="3" t="s">
         <v>51</v>
       </c>
       <c r="F10">
@@ -1182,41 +1184,41 @@
         <v>68</v>
       </c>
       <c r="I10" t="s">
-        <v>124</v>
-      </c>
-      <c r="W10" t="s">
-        <v>59</v>
-      </c>
-      <c r="X10">
+        <v>114</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>55</v>
+      </c>
+      <c r="R10">
         <v>700</v>
       </c>
-      <c r="Y10">
+      <c r="S10">
         <v>70</v>
       </c>
-      <c r="Z10">
+      <c r="T10">
         <v>70</v>
       </c>
-      <c r="AA10">
+      <c r="U10">
         <v>300</v>
       </c>
-      <c r="AB10">
+      <c r="V10">
         <v>100</v>
       </c>
-      <c r="AC10">
+      <c r="W10">
         <v>127</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="B11" s="5">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B11" s="3">
         <v>10.99</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11" s="2">
         <v>5.55</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="E11" s="2" t="s">
         <v>52</v>
       </c>
       <c r="F11">
@@ -1225,39 +1227,45 @@
       <c r="G11" t="s">
         <v>11</v>
       </c>
-      <c r="W11" t="s">
-        <v>60</v>
-      </c>
-      <c r="X11">
+      <c r="H11">
+        <v>50</v>
+      </c>
+      <c r="I11" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>56</v>
+      </c>
+      <c r="R11">
         <v>700</v>
       </c>
-      <c r="Y11">
+      <c r="S11">
         <v>70</v>
       </c>
-      <c r="Z11">
+      <c r="T11">
         <v>70</v>
       </c>
-      <c r="AA11">
+      <c r="U11">
         <v>300</v>
       </c>
-      <c r="AB11">
+      <c r="V11">
         <v>100</v>
       </c>
-      <c r="AC11">
+      <c r="W11">
         <v>127</v>
       </c>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="B12" s="5">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B12" s="3">
         <v>22</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D12" s="5">
+      <c r="D12" s="3">
         <v>4.49</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="E12" s="3" t="s">
         <v>53</v>
       </c>
       <c r="F12">
@@ -1266,42 +1274,42 @@
       <c r="G12" t="s">
         <v>12</v>
       </c>
-      <c r="W12" t="s">
-        <v>61</v>
-      </c>
-      <c r="X12">
+      <c r="Q12" t="s">
+        <v>57</v>
+      </c>
+      <c r="R12">
         <v>700</v>
       </c>
-      <c r="Y12">
+      <c r="S12">
         <v>70</v>
       </c>
-      <c r="Z12">
+      <c r="T12">
         <v>70</v>
       </c>
-      <c r="AA12">
+      <c r="U12">
         <v>300</v>
       </c>
-      <c r="AB12">
+      <c r="V12">
         <v>100</v>
       </c>
-      <c r="AC12">
+      <c r="W12">
         <v>127</v>
       </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="B13" s="5">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B13" s="3">
         <v>8.99</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D13" s="5">
+      <c r="D13" s="3">
         <v>4.97</v>
       </c>
-      <c r="E13" s="5" t="s">
+      <c r="E13" s="3" t="s">
         <v>46</v>
       </c>
       <c r="F13">
@@ -1310,29 +1318,29 @@
       <c r="G13" t="s">
         <v>13</v>
       </c>
-      <c r="W13" t="s">
-        <v>63</v>
-      </c>
-      <c r="X13">
-        <f>SUM(X10:AC12)</f>
+      <c r="Q13" t="s">
+        <v>59</v>
+      </c>
+      <c r="R13">
+        <f>SUM(R10:W12)</f>
         <v>4101</v>
       </c>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="B14" s="5">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B14" s="3">
         <v>9.99</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="D14" s="4">
+      <c r="D14" s="2">
         <v>7.28</v>
       </c>
-      <c r="E14" s="4" t="s">
-        <v>78</v>
+      <c r="E14" s="2" t="s">
+        <v>70</v>
       </c>
       <c r="F14">
         <v>29.98</v>
@@ -1341,38 +1349,38 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="B15" s="5">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B15" s="3">
         <v>9.99</v>
       </c>
-      <c r="C15" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="D15" s="5">
+      <c r="C15" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D15" s="3">
         <v>32.090000000000003</v>
       </c>
-      <c r="E15" s="5" t="s">
-        <v>79</v>
+      <c r="E15" s="3" t="s">
+        <v>71</v>
       </c>
       <c r="F15">
         <v>15.99</v>
       </c>
       <c r="G15" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A16" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="D16" s="5">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D16" s="3">
         <v>6.99</v>
       </c>
-      <c r="E16" s="5" t="s">
-        <v>103</v>
+      <c r="E16" s="3" t="s">
+        <v>94</v>
       </c>
       <c r="F16">
         <v>27.94</v>
@@ -1380,23 +1388,23 @@
       <c r="G16" t="s">
         <v>15</v>
       </c>
-      <c r="W16" t="s">
-        <v>65</v>
-      </c>
-      <c r="X16">
-        <f>X8-X13</f>
+      <c r="Q16" t="s">
+        <v>61</v>
+      </c>
+      <c r="R16">
+        <f>R8-R13</f>
         <v>4365.7800000000007</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="D17" s="5">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D17" s="3">
         <v>4.97</v>
       </c>
-      <c r="E17" s="5" t="s">
-        <v>104</v>
+      <c r="E17" s="3" t="s">
+        <v>95</v>
       </c>
       <c r="F17">
         <v>12.58</v>
@@ -1405,15 +1413,15 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A18" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="D18" s="4">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="D18" s="2">
         <v>6.48</v>
       </c>
-      <c r="E18" s="4" t="s">
-        <v>97</v>
+      <c r="E18" s="2" t="s">
+        <v>89</v>
       </c>
       <c r="F18">
         <v>12.99</v>
@@ -1422,12 +1430,12 @@
         <v>34</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D19" s="1">
         <v>6.94</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="F19">
         <v>30</v>
@@ -1436,12 +1444,12 @@
         <v>43</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D20" s="1">
         <v>8.86</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="F20" s="1">
         <v>30</v>
@@ -1450,108 +1458,180 @@
         <v>50</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D21" s="4">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="D21" s="2">
         <v>8.69</v>
       </c>
-      <c r="E21" s="4" t="s">
-        <v>101</v>
+      <c r="E21" s="2" t="s">
+        <v>92</v>
       </c>
       <c r="F21">
         <v>10.99</v>
       </c>
       <c r="G21" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D22" s="4">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="5"/>
+      <c r="D22" s="2">
         <v>9.99</v>
       </c>
-      <c r="E22" s="4" t="s">
-        <v>102</v>
+      <c r="E22" s="2" t="s">
+        <v>93</v>
       </c>
       <c r="F22">
         <v>10.53</v>
       </c>
       <c r="G22" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="5"/>
+      <c r="D23" s="2">
+        <v>9.9499999999999993</v>
+      </c>
+      <c r="E23" s="2" t="s">
         <v>111</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D23" s="4">
-        <v>9.9499999999999993</v>
-      </c>
-      <c r="E23" s="4" t="s">
-        <v>121</v>
       </c>
       <c r="F23" s="1">
         <v>11.75</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D24" s="4">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="5"/>
+      <c r="D24" s="2">
         <v>22</v>
       </c>
-      <c r="E24" s="4" t="s">
+      <c r="E24" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="F24" s="2">
+        <v>26.74</v>
+      </c>
+      <c r="G24" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="5"/>
+      <c r="D25" s="2">
+        <v>23.83</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="5"/>
+      <c r="D26" s="2">
+        <v>10.99</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="F26" s="3">
+        <v>18.989999999999998</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D27" s="2">
+        <v>10.99</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="F27" s="3">
+        <v>25.9</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D28" s="2">
+        <v>10.99</v>
+      </c>
+      <c r="E28" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="F24" s="4">
-        <v>26.74</v>
-      </c>
-      <c r="G24" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="F25" s="1">
-        <v>17.95</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="F26" s="5">
-        <v>18.989999999999998</v>
-      </c>
-      <c r="G26" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="P26">
-        <f>(SUM(F28:F38)+D14+SUM(F2:F8))*2</f>
-        <v>253.11999999999998</v>
-      </c>
-      <c r="Q26">
-        <f>(SUM(D18:D22)+ D11)*2</f>
-        <v>93.02</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="F27" s="5">
-        <v>25.9</v>
-      </c>
-      <c r="G27" s="5" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="F28">
         <v>16.989999999999998</v>
       </c>
       <c r="G28" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D29" s="2">
+        <v>10.99</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>124</v>
+      </c>
       <c r="F29">
         <v>10.53</v>
       </c>
       <c r="G29" t="s">
-        <v>111</v>
+        <v>102</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D30" s="2">
+        <v>23.01</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="F30">
+        <v>19.989999999999998</v>
+      </c>
+      <c r="G30" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F31">
+        <v>25.83</v>
+      </c>
+      <c r="G31" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F32">
+        <v>12.99</v>
+      </c>
+      <c r="G32" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F33">
+        <v>13.99</v>
+      </c>
+      <c r="G33" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F34">
+        <v>30</v>
+      </c>
+      <c r="G34" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
@@ -1563,16 +1643,16 @@
         <v>138.84</v>
       </c>
       <c r="D39">
-        <f>SUM(D2:D27)</f>
-        <v>354.21000000000009</v>
+        <f>SUM(D2:D30)</f>
+        <v>445.0100000000001</v>
       </c>
       <c r="F39">
         <f>SUM(F2:F38)</f>
-        <v>451.50999999999993</v>
+        <v>536.3599999999999</v>
       </c>
       <c r="H39">
         <f>SUM(H2:H24)</f>
-        <v>1268.1400000000001</v>
+        <v>1318.14</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
@@ -1585,26 +1665,26 @@
       </c>
       <c r="D40">
         <f>D39*2</f>
-        <v>708.42000000000019</v>
+        <v>890.02000000000021</v>
       </c>
       <c r="F40">
         <f>F39*2</f>
-        <v>903.01999999999987</v>
+        <v>1072.7199999999998</v>
       </c>
       <c r="H40">
         <f t="shared" ref="H40" si="0">H39*2</f>
-        <v>2536.2800000000002</v>
+        <v>2636.28</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="B41">
         <v>277.68</v>
       </c>
       <c r="C41" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="D41">
         <f>D15*2+2*(SUM(D2:D10)+SUM(D12:D13)+SUM(D16:D17))</f>
@@ -1627,37 +1707,37 @@
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A42" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="B42" s="6">
+      <c r="A42" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B42" s="4">
         <f>B40-B41</f>
         <v>0</v>
       </c>
-      <c r="C42" s="6"/>
-      <c r="D42" s="6">
+      <c r="C42" s="4"/>
+      <c r="D42" s="4">
         <f t="shared" ref="D42:H42" si="1">D40-D41</f>
-        <v>171.48000000000013</v>
-      </c>
-      <c r="E42" s="6"/>
-      <c r="F42" s="6">
+        <v>353.08000000000015</v>
+      </c>
+      <c r="E42" s="4"/>
+      <c r="F42" s="4">
         <f t="shared" si="1"/>
-        <v>759.75999999999988</v>
-      </c>
-      <c r="G42" s="6"/>
-      <c r="H42" s="6">
+        <v>929.45999999999981</v>
+      </c>
+      <c r="G42" s="4"/>
+      <c r="H42" s="4">
         <f t="shared" si="1"/>
-        <v>2536.2800000000002</v>
-      </c>
-      <c r="I42" s="6"/>
+        <v>2636.28</v>
+      </c>
+      <c r="I42" s="4"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>22</v>
       </c>
       <c r="B43">
-        <f>SUM(B39:Q39)</f>
-        <v>2212.6999999999998</v>
+        <f>SUM(B39:N39)</f>
+        <v>2438.3500000000004</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
@@ -1666,10 +1746,13 @@
       </c>
       <c r="B45">
         <f>B43*2</f>
-        <v>4425.3999999999996</v>
+        <v>4876.7000000000007</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A21:A26"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1689,22 +1772,22 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D1" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="G1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="H1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>

--- a/Savings.xlsx
+++ b/Savings.xlsx
@@ -448,7 +448,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -479,6 +479,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -492,16 +498,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -790,7 +797,7 @@
   <dimension ref="A1:X45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+      <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -821,7 +828,7 @@
       <c r="R1" t="s">
         <v>54</v>
       </c>
-      <c r="X1" s="6" t="s">
+      <c r="X1" s="5" t="s">
         <v>65</v>
       </c>
     </row>
@@ -868,7 +875,7 @@
       <c r="R2">
         <v>1411.13</v>
       </c>
-      <c r="X2" s="6">
+      <c r="X2" s="5">
         <f>SUM(B41+D41+F41+H41)</f>
         <v>957.88000000000011</v>
       </c>
@@ -1396,7 +1403,7 @@
         <v>4365.7800000000007</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>84</v>
       </c>
@@ -1413,7 +1420,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>96</v>
       </c>
@@ -1430,7 +1437,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D19" s="1">
         <v>6.94</v>
       </c>
@@ -1444,7 +1451,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D20" s="1">
         <v>8.86</v>
       </c>
@@ -1458,8 +1465,8 @@
         <v>50</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="5" t="s">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" s="6" t="s">
         <v>131</v>
       </c>
       <c r="D21" s="2">
@@ -1475,8 +1482,8 @@
         <v>106</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="5"/>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" s="6"/>
       <c r="D22" s="2">
         <v>9.99</v>
       </c>
@@ -1490,8 +1497,8 @@
         <v>102</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="5"/>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" s="6"/>
       <c r="D23" s="2">
         <v>9.9499999999999993</v>
       </c>
@@ -1504,9 +1511,13 @@
       <c r="G23" s="1" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="5"/>
+      <c r="K23">
+        <f>SUM(D21:D30)*2+ 2*D18+2*D14+2*D11</f>
+        <v>321.47999999999996</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" s="6"/>
       <c r="D24" s="2">
         <v>22</v>
       </c>
@@ -1520,8 +1531,8 @@
         <v>88</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="5"/>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" s="6"/>
       <c r="D25" s="2">
         <v>23.83</v>
       </c>
@@ -1531,8 +1542,8 @@
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="5"/>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" s="6"/>
       <c r="D26" s="2">
         <v>10.99</v>
       </c>
@@ -1546,7 +1557,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D27" s="2">
         <v>10.99</v>
       </c>
@@ -1560,7 +1571,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D28" s="2">
         <v>10.99</v>
       </c>
@@ -1574,7 +1585,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D29" s="2">
         <v>10.99</v>
       </c>
@@ -1588,7 +1599,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D30" s="2">
         <v>23.01</v>
       </c>
@@ -1602,7 +1613,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F31">
         <v>25.83</v>
       </c>
@@ -1610,7 +1621,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F32">
         <v>12.99</v>
       </c>
@@ -1618,7 +1629,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="F33">
         <v>13.99</v>
       </c>
@@ -1626,7 +1637,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="F34">
         <v>30</v>
       </c>
@@ -1634,28 +1645,37 @@
         <v>133</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A39" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B39">
+      <c r="B39" s="7">
         <f>SUM(B2:B15)</f>
         <v>138.84</v>
       </c>
-      <c r="D39">
+      <c r="C39" s="7"/>
+      <c r="D39" s="7">
         <f>SUM(D2:D30)</f>
         <v>445.0100000000001</v>
       </c>
-      <c r="F39">
+      <c r="E39" s="7"/>
+      <c r="F39" s="7">
         <f>SUM(F2:F38)</f>
         <v>536.3599999999999</v>
       </c>
-      <c r="H39">
+      <c r="G39" s="7"/>
+      <c r="H39" s="7">
         <f>SUM(H2:H24)</f>
         <v>1318.14</v>
       </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I39" s="7"/>
+      <c r="J39" s="7"/>
+      <c r="K39" s="7"/>
+      <c r="L39" s="7"/>
+      <c r="M39" s="7"/>
+      <c r="N39" s="7"/>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>47</v>
       </c>
@@ -1676,7 +1696,7 @@
         <v>2636.28</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>77</v>
       </c>
@@ -1706,7 +1726,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
         <v>78</v>
       </c>
@@ -1730,8 +1750,16 @@
         <v>2636.28</v>
       </c>
       <c r="I42" s="4"/>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J42" s="4"/>
+      <c r="K42" s="4"/>
+      <c r="L42" s="4"/>
+      <c r="M42" s="4"/>
+      <c r="N42" s="4"/>
+      <c r="O42" s="2"/>
+      <c r="P42" s="2"/>
+      <c r="Q42" s="2"/>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>22</v>
       </c>
@@ -1740,7 +1768,7 @@
         <v>2438.3500000000004</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>23</v>
       </c>

--- a/Savings.xlsx
+++ b/Savings.xlsx
@@ -505,10 +505,10 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -797,7 +797,7 @@
   <dimension ref="A1:X45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M18" sqref="M18"/>
+      <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1466,7 +1466,7 @@
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="6" t="s">
+      <c r="A21" s="7" t="s">
         <v>131</v>
       </c>
       <c r="D21" s="2">
@@ -1483,7 +1483,7 @@
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="6"/>
+      <c r="A22" s="7"/>
       <c r="D22" s="2">
         <v>9.99</v>
       </c>
@@ -1498,7 +1498,7 @@
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="6"/>
+      <c r="A23" s="7"/>
       <c r="D23" s="2">
         <v>9.9499999999999993</v>
       </c>
@@ -1517,7 +1517,7 @@
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="6"/>
+      <c r="A24" s="7"/>
       <c r="D24" s="2">
         <v>22</v>
       </c>
@@ -1532,7 +1532,7 @@
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="6"/>
+      <c r="A25" s="7"/>
       <c r="D25" s="2">
         <v>23.83</v>
       </c>
@@ -1543,7 +1543,7 @@
       <c r="G25" s="2"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="6"/>
+      <c r="A26" s="7"/>
       <c r="D26" s="2">
         <v>10.99</v>
       </c>
@@ -1646,34 +1646,34 @@
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A39" s="7" t="s">
+      <c r="A39" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B39" s="7">
+      <c r="B39" s="6">
         <f>SUM(B2:B15)</f>
         <v>138.84</v>
       </c>
-      <c r="C39" s="7"/>
-      <c r="D39" s="7">
+      <c r="C39" s="6"/>
+      <c r="D39" s="6">
         <f>SUM(D2:D30)</f>
         <v>445.0100000000001</v>
       </c>
-      <c r="E39" s="7"/>
-      <c r="F39" s="7">
+      <c r="E39" s="6"/>
+      <c r="F39" s="6">
         <f>SUM(F2:F38)</f>
         <v>536.3599999999999</v>
       </c>
-      <c r="G39" s="7"/>
-      <c r="H39" s="7">
+      <c r="G39" s="6"/>
+      <c r="H39" s="6">
         <f>SUM(H2:H24)</f>
         <v>1318.14</v>
       </c>
-      <c r="I39" s="7"/>
-      <c r="J39" s="7"/>
-      <c r="K39" s="7"/>
-      <c r="L39" s="7"/>
-      <c r="M39" s="7"/>
-      <c r="N39" s="7"/>
+      <c r="I39" s="6"/>
+      <c r="J39" s="6"/>
+      <c r="K39" s="6"/>
+      <c r="L39" s="6"/>
+      <c r="M39" s="6"/>
+      <c r="N39" s="6"/>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A40" t="s">

--- a/Savings.xlsx
+++ b/Savings.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="134">
   <si>
     <t>Funko</t>
   </si>
@@ -796,8 +796,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K23" sqref="K23"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -877,7 +877,7 @@
       </c>
       <c r="X2" s="5">
         <f>SUM(B41+D41+F41+H41)</f>
-        <v>957.88000000000011</v>
+        <v>1279.3600000000001</v>
       </c>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.25">
@@ -921,7 +921,7 @@
         <v>55</v>
       </c>
       <c r="R3">
-        <v>1411.13</v>
+        <v>1543.26</v>
       </c>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.25">
@@ -959,7 +959,7 @@
         <v>56</v>
       </c>
       <c r="R4">
-        <v>1411.13</v>
+        <v>1493.84</v>
       </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.25">
@@ -997,7 +997,7 @@
         <v>56</v>
       </c>
       <c r="R5">
-        <v>1411.13</v>
+        <v>1543.26</v>
       </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.25">
@@ -1038,7 +1038,7 @@
         <v>57</v>
       </c>
       <c r="R6">
-        <v>1411.13</v>
+        <v>1543.26</v>
       </c>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.25">
@@ -1079,7 +1079,7 @@
         <v>57</v>
       </c>
       <c r="R7">
-        <v>1411.13</v>
+        <v>1543.26</v>
       </c>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.25">
@@ -1111,11 +1111,10 @@
         <v>105</v>
       </c>
       <c r="Q8" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="R8">
-        <f>SUM(R2:R7)</f>
-        <v>8466.7800000000007</v>
+        <v>1543.26</v>
       </c>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.25">
@@ -1146,23 +1145,11 @@
       <c r="I9" t="s">
         <v>86</v>
       </c>
-      <c r="R9" t="s">
-        <v>58</v>
-      </c>
-      <c r="S9" t="s">
-        <v>63</v>
-      </c>
-      <c r="T9" t="s">
-        <v>64</v>
-      </c>
-      <c r="U9" t="s">
-        <v>60</v>
-      </c>
-      <c r="V9" t="s">
-        <v>62</v>
-      </c>
-      <c r="W9" t="s">
-        <v>85</v>
+      <c r="Q9" t="s">
+        <v>57</v>
+      </c>
+      <c r="R9">
+        <v>700</v>
       </c>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.25">
@@ -1193,27 +1180,6 @@
       <c r="I10" t="s">
         <v>114</v>
       </c>
-      <c r="Q10" t="s">
-        <v>55</v>
-      </c>
-      <c r="R10">
-        <v>700</v>
-      </c>
-      <c r="S10">
-        <v>70</v>
-      </c>
-      <c r="T10">
-        <v>70</v>
-      </c>
-      <c r="U10">
-        <v>300</v>
-      </c>
-      <c r="V10">
-        <v>100</v>
-      </c>
-      <c r="W10">
-        <v>127</v>
-      </c>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B11" s="3">
@@ -1222,10 +1188,10 @@
       <c r="C11" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D11" s="3">
         <v>5.55</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="E11" s="3" t="s">
         <v>52</v>
       </c>
       <c r="F11">
@@ -1238,27 +1204,6 @@
         <v>50</v>
       </c>
       <c r="I11" t="s">
-        <v>127</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>56</v>
-      </c>
-      <c r="R11">
-        <v>700</v>
-      </c>
-      <c r="S11">
-        <v>70</v>
-      </c>
-      <c r="T11">
-        <v>70</v>
-      </c>
-      <c r="U11">
-        <v>300</v>
-      </c>
-      <c r="V11">
-        <v>100</v>
-      </c>
-      <c r="W11">
         <v>127</v>
       </c>
     </row>
@@ -1281,27 +1226,6 @@
       <c r="G12" t="s">
         <v>12</v>
       </c>
-      <c r="Q12" t="s">
-        <v>57</v>
-      </c>
-      <c r="R12">
-        <v>700</v>
-      </c>
-      <c r="S12">
-        <v>70</v>
-      </c>
-      <c r="T12">
-        <v>70</v>
-      </c>
-      <c r="U12">
-        <v>300</v>
-      </c>
-      <c r="V12">
-        <v>100</v>
-      </c>
-      <c r="W12">
-        <v>127</v>
-      </c>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
@@ -1325,13 +1249,6 @@
       <c r="G13" t="s">
         <v>13</v>
       </c>
-      <c r="Q13" t="s">
-        <v>59</v>
-      </c>
-      <c r="R13">
-        <f>SUM(R10:W12)</f>
-        <v>4101</v>
-      </c>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
@@ -1343,10 +1260,10 @@
       <c r="C14" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D14" s="3">
         <v>7.28</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="E14" s="3" t="s">
         <v>70</v>
       </c>
       <c r="F14">
@@ -1395,15 +1312,8 @@
       <c r="G16" t="s">
         <v>15</v>
       </c>
-      <c r="Q16" t="s">
-        <v>61</v>
-      </c>
-      <c r="R16">
-        <f>R8-R13</f>
-        <v>4365.7800000000007</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>84</v>
       </c>
@@ -1419,15 +1329,22 @@
       <c r="G17" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="Q17" t="s">
+        <v>59</v>
+      </c>
+      <c r="R17">
+        <f>SUM(R1:R16)</f>
+        <v>11321.27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="D18" s="2">
+      <c r="D18" s="3">
         <v>6.48</v>
       </c>
-      <c r="E18" s="2" t="s">
+      <c r="E18" s="3" t="s">
         <v>89</v>
       </c>
       <c r="F18">
@@ -1436,8 +1353,26 @@
       <c r="G18" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="R18" t="s">
+        <v>58</v>
+      </c>
+      <c r="S18" t="s">
+        <v>63</v>
+      </c>
+      <c r="T18" t="s">
+        <v>64</v>
+      </c>
+      <c r="U18" t="s">
+        <v>60</v>
+      </c>
+      <c r="V18" t="s">
+        <v>62</v>
+      </c>
+      <c r="W18" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
       <c r="D19" s="1">
         <v>6.94</v>
       </c>
@@ -1450,29 +1385,75 @@
       <c r="G19" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="Q19" t="s">
+        <v>55</v>
+      </c>
+      <c r="R19">
+        <v>720</v>
+      </c>
+      <c r="S19">
+        <v>70</v>
+      </c>
+      <c r="T19">
+        <v>70</v>
+      </c>
+      <c r="U19">
+        <v>300</v>
+      </c>
+      <c r="V19">
+        <v>100</v>
+      </c>
+      <c r="W19">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
       <c r="D20" s="1">
         <v>8.86</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="F20" s="1">
+      <c r="F20" s="2">
         <v>30</v>
       </c>
-      <c r="G20" s="1" t="s">
+      <c r="G20" s="2" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J20">
+        <f>SUM(F2:F22)*2</f>
+        <v>645.31999999999994</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>56</v>
+      </c>
+      <c r="R20">
+        <v>720</v>
+      </c>
+      <c r="S20">
+        <v>70</v>
+      </c>
+      <c r="T20">
+        <v>70</v>
+      </c>
+      <c r="U20">
+        <v>300</v>
+      </c>
+      <c r="V20">
+        <v>100</v>
+      </c>
+      <c r="W20">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="D21" s="2">
+      <c r="D21" s="3">
         <v>8.69</v>
       </c>
-      <c r="E21" s="2" t="s">
+      <c r="E21" s="3" t="s">
         <v>92</v>
       </c>
       <c r="F21">
@@ -1481,13 +1462,34 @@
       <c r="G21" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="Q21" t="s">
+        <v>57</v>
+      </c>
+      <c r="R21">
+        <v>720</v>
+      </c>
+      <c r="S21">
+        <v>70</v>
+      </c>
+      <c r="T21">
+        <v>70</v>
+      </c>
+      <c r="U21">
+        <v>300</v>
+      </c>
+      <c r="V21">
+        <v>100</v>
+      </c>
+      <c r="W21">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A22" s="7"/>
-      <c r="D22" s="2">
+      <c r="D22" s="3">
         <v>9.99</v>
       </c>
-      <c r="E22" s="2" t="s">
+      <c r="E22" s="3" t="s">
         <v>93</v>
       </c>
       <c r="F22">
@@ -1496,13 +1498,20 @@
       <c r="G22" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="Q22" t="s">
+        <v>59</v>
+      </c>
+      <c r="R22">
+        <f>SUM(R19:W21)</f>
+        <v>4380</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A23" s="7"/>
-      <c r="D23" s="2">
+      <c r="D23" s="3">
         <v>9.9499999999999993</v>
       </c>
-      <c r="E23" s="2" t="s">
+      <c r="E23" s="3" t="s">
         <v>111</v>
       </c>
       <c r="F23" s="1">
@@ -1511,17 +1520,13 @@
       <c r="G23" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="K23">
-        <f>SUM(D21:D30)*2+ 2*D18+2*D14+2*D11</f>
-        <v>321.47999999999996</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A24" s="7"/>
-      <c r="D24" s="2">
+      <c r="D24" s="3">
         <v>22</v>
       </c>
-      <c r="E24" s="2" t="s">
+      <c r="E24" s="3" t="s">
         <v>113</v>
       </c>
       <c r="F24" s="2">
@@ -1531,23 +1536,30 @@
         <v>88</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A25" s="7"/>
-      <c r="D25" s="2">
+      <c r="D25" s="3">
         <v>23.83</v>
       </c>
-      <c r="E25" s="2" t="s">
+      <c r="E25" s="3" t="s">
         <v>119</v>
       </c>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="Q25" t="s">
+        <v>61</v>
+      </c>
+      <c r="R25">
+        <f>R17-R22</f>
+        <v>6941.27</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A26" s="7"/>
-      <c r="D26" s="2">
+      <c r="D26" s="3">
         <v>10.99</v>
       </c>
-      <c r="E26" s="2" t="s">
+      <c r="E26" s="3" t="s">
         <v>121</v>
       </c>
       <c r="F26" s="3">
@@ -1557,11 +1569,11 @@
         <v>97</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D27" s="2">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="D27" s="3">
         <v>10.99</v>
       </c>
-      <c r="E27" s="2" t="s">
+      <c r="E27" s="3" t="s">
         <v>122</v>
       </c>
       <c r="F27" s="3">
@@ -1571,11 +1583,11 @@
         <v>100</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D28" s="2">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="D28" s="3">
         <v>10.99</v>
       </c>
-      <c r="E28" s="2" t="s">
+      <c r="E28" s="3" t="s">
         <v>123</v>
       </c>
       <c r="F28">
@@ -1585,11 +1597,11 @@
         <v>101</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D29" s="2">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="D29" s="3">
         <v>10.99</v>
       </c>
-      <c r="E29" s="2" t="s">
+      <c r="E29" s="3" t="s">
         <v>124</v>
       </c>
       <c r="F29">
@@ -1599,11 +1611,11 @@
         <v>102</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D30" s="2">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="D30" s="3">
         <v>23.01</v>
       </c>
-      <c r="E30" s="2" t="s">
+      <c r="E30" s="3" t="s">
         <v>132</v>
       </c>
       <c r="F30">
@@ -1613,7 +1625,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
       <c r="F31">
         <v>25.83</v>
       </c>
@@ -1621,7 +1633,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
       <c r="F32">
         <v>12.99</v>
       </c>
@@ -1707,8 +1719,8 @@
         <v>99</v>
       </c>
       <c r="D41">
-        <f>D15*2+2*(SUM(D2:D10)+SUM(D12:D13)+SUM(D16:D17))</f>
-        <v>536.94000000000005</v>
+        <f>2*(SUM(D2:D18))+2*(SUM(D21:D30))</f>
+        <v>858.42000000000007</v>
       </c>
       <c r="E41" t="s">
         <v>48</v>
@@ -1737,7 +1749,7 @@
       <c r="C42" s="4"/>
       <c r="D42" s="4">
         <f t="shared" ref="D42:H42" si="1">D40-D41</f>
-        <v>353.08000000000015</v>
+        <v>31.600000000000136</v>
       </c>
       <c r="E42" s="4"/>
       <c r="F42" s="4">

--- a/Savings.xlsx
+++ b/Savings.xlsx
@@ -796,8 +796,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="R33" sqref="R33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1639,6 +1639,10 @@
       </c>
       <c r="G32" t="s">
         <v>129</v>
+      </c>
+      <c r="R32">
+        <f>46.75*0.07</f>
+        <v>3.2725000000000004</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.25">
